--- a/raw_data/20200818_saline/20200818_Sensor1_Test_62.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_62.xlsx
@@ -1,613 +1,1029 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EDA9D4-673B-48A5-AE5A-074E20D58761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>55086.571009</v>
+        <v>55086.571008999999</v>
       </c>
       <c r="B2" s="1">
-        <v>15.301825</v>
+        <v>15.301824999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>900.074000</v>
+        <v>900.07399999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>-197.852000</v>
+        <v>-197.852</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>55096.961203</v>
+        <v>55096.961202999999</v>
       </c>
       <c r="G2" s="1">
-        <v>15.304711</v>
+        <v>15.304710999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>917.317000</v>
+        <v>917.31700000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.866000</v>
+        <v>-167.86600000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>55107.411878</v>
+        <v>55107.411877999999</v>
       </c>
       <c r="L2" s="1">
-        <v>15.307614</v>
+        <v>15.307613999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>940.036000</v>
+        <v>940.03599999999994</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.077000</v>
+        <v>-119.077</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>55117.873524</v>
+        <v>55117.873524000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>15.310520</v>
+        <v>15.31052</v>
       </c>
       <c r="R2" s="1">
-        <v>946.838000</v>
+        <v>946.83799999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.054000</v>
+        <v>-103.054</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>55128.779530</v>
+        <v>55128.77953</v>
       </c>
       <c r="V2" s="1">
-        <v>15.313550</v>
+        <v>15.313549999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>953.429000</v>
+        <v>953.42899999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.190700</v>
+        <v>-88.190700000000007</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>55138.927179</v>
+        <v>55138.927178999998</v>
       </c>
       <c r="AA2" s="1">
         <v>15.316369</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.499000</v>
+        <v>960.49900000000002</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.720800</v>
+        <v>-76.720799999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>55149.263311</v>
+        <v>55149.263311000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>15.319240</v>
+        <v>15.319240000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.334000</v>
+        <v>965.33399999999995</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.637800</v>
+        <v>-74.637799999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>55159.408512</v>
+        <v>55159.408512000002</v>
       </c>
       <c r="AK2" s="1">
         <v>15.322058</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.440000</v>
+        <v>972.44</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.570200</v>
+        <v>-79.5702</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>55169.264484</v>
+        <v>55169.264483999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>15.324796</v>
+        <v>15.324795999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>980.649000</v>
+        <v>980.649</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.237700</v>
+        <v>-91.237700000000004</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>55179.894278</v>
@@ -616,1011 +1032,1011 @@
         <v>15.327748</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.637000</v>
+        <v>990.63699999999994</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.010000</v>
+        <v>-109.01</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>55191.012072</v>
+        <v>55191.012071999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>15.330837</v>
+        <v>15.330837000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.003000</v>
+        <v>999.00300000000004</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.693000</v>
+        <v>-124.693</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>55201.492041</v>
+        <v>55201.492040999998</v>
       </c>
       <c r="BE2" s="1">
         <v>15.333748</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.220000</v>
+        <v>1038.22</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.366000</v>
+        <v>-196.36600000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>55212.491354</v>
+        <v>55212.491353999998</v>
       </c>
       <c r="BJ2" s="1">
         <v>15.336803</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.430000</v>
+        <v>1105.43</v>
       </c>
       <c r="BL2" s="1">
-        <v>-311.921000</v>
+        <v>-311.92099999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>55224.002501</v>
+        <v>55224.002501000003</v>
       </c>
       <c r="BO2" s="1">
-        <v>15.340001</v>
+        <v>15.340001000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1213.870000</v>
+        <v>1213.8699999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-493.442000</v>
+        <v>-493.44200000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>55235.600460</v>
+        <v>55235.600460000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>15.343222</v>
+        <v>15.343222000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1335.720000</v>
+        <v>1335.72</v>
       </c>
       <c r="BV2" s="1">
-        <v>-692.268000</v>
+        <v>-692.26800000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>55246.333855</v>
+        <v>55246.333854999997</v>
       </c>
       <c r="BY2" s="1">
         <v>15.346204</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1470.930000</v>
+        <v>1470.93</v>
       </c>
       <c r="CA2" s="1">
-        <v>-903.781000</v>
+        <v>-903.78099999999995</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>55257.687278</v>
+        <v>55257.687277999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>15.349358</v>
+        <v>15.349358000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1824.850000</v>
+        <v>1824.85</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1404.900000</v>
+        <v>-1404.9</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>55086.926112</v>
+        <v>55086.926112000001</v>
       </c>
       <c r="B3" s="1">
         <v>15.301924</v>
       </c>
       <c r="C3" s="1">
-        <v>900.053000</v>
+        <v>900.053</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.817000</v>
+        <v>-197.81700000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>55097.335185</v>
+        <v>55097.335185000004</v>
       </c>
       <c r="G3" s="1">
         <v>15.304815</v>
       </c>
       <c r="H3" s="1">
-        <v>917.246000</v>
+        <v>917.24599999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.236000</v>
+        <v>-167.23599999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>55107.784372</v>
+        <v>55107.784372000002</v>
       </c>
       <c r="L3" s="1">
-        <v>15.307718</v>
+        <v>15.307717999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>940.138000</v>
+        <v>940.13800000000003</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.950000</v>
+        <v>-118.95</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>55118.570375</v>
+        <v>55118.570375000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>15.310714</v>
+        <v>15.310714000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>946.803000</v>
+        <v>946.803</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.031000</v>
+        <v>-103.03100000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>55128.889144</v>
+        <v>55128.889144000001</v>
       </c>
       <c r="V3" s="1">
-        <v>15.313580</v>
+        <v>15.31358</v>
       </c>
       <c r="W3" s="1">
-        <v>953.411000</v>
+        <v>953.41099999999994</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.245300</v>
+        <v>-88.2453</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>55139.336399</v>
       </c>
       <c r="AA3" s="1">
-        <v>15.316482</v>
+        <v>15.316482000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.605000</v>
+        <v>960.60500000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.727700</v>
+        <v>-76.727699999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>55149.611005</v>
+        <v>55149.611004999999</v>
       </c>
       <c r="AF3" s="1">
         <v>15.319336</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.282000</v>
+        <v>965.28200000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.659400</v>
+        <v>-74.659400000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>55159.757666</v>
+        <v>55159.757665999998</v>
       </c>
       <c r="AK3" s="1">
         <v>15.322155</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.442000</v>
+        <v>972.44200000000001</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.558700</v>
+        <v>-79.558700000000002</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>55169.655364</v>
+        <v>55169.655363999998</v>
       </c>
       <c r="AP3" s="1">
         <v>15.324904</v>
       </c>
       <c r="AQ3" s="1">
-        <v>980.642000</v>
+        <v>980.64200000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.246200</v>
+        <v>-91.246200000000002</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>55180.290586</v>
+        <v>55180.290586000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>15.327858</v>
+        <v>15.327858000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.631000</v>
+        <v>990.63099999999997</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.029000</v>
+        <v>-109.029</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>55191.438671</v>
+        <v>55191.438671000004</v>
       </c>
       <c r="AZ3" s="1">
-        <v>15.330955</v>
+        <v>15.330954999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>998.996000</v>
+        <v>998.99599999999998</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.678000</v>
+        <v>-124.678</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>55201.931000</v>
+        <v>55201.930999999997</v>
       </c>
       <c r="BE3" s="1">
-        <v>15.333870</v>
+        <v>15.333869999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.230000</v>
+        <v>1038.23</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.372000</v>
+        <v>-196.37200000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>55212.946153</v>
+        <v>55212.946152999997</v>
       </c>
       <c r="BJ3" s="1">
         <v>15.336929</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL3" s="1">
-        <v>-311.938000</v>
+        <v>-311.93799999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>55224.436474</v>
+        <v>55224.436474000002</v>
       </c>
       <c r="BO3" s="1">
         <v>15.340121</v>
       </c>
       <c r="BP3" s="1">
-        <v>1213.910000</v>
+        <v>1213.9100000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-493.456000</v>
+        <v>-493.45600000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>55236.045836</v>
+        <v>55236.045835999998</v>
       </c>
       <c r="BT3" s="1">
         <v>15.343346</v>
       </c>
       <c r="BU3" s="1">
-        <v>1335.680000</v>
+        <v>1335.68</v>
       </c>
       <c r="BV3" s="1">
-        <v>-692.230000</v>
+        <v>-692.23</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>55246.798606</v>
+        <v>55246.798605999997</v>
       </c>
       <c r="BY3" s="1">
         <v>15.346333</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1470.870000</v>
+        <v>1470.87</v>
       </c>
       <c r="CA3" s="1">
-        <v>-903.778000</v>
+        <v>-903.77800000000002</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>55258.280526</v>
+        <v>55258.280526000002</v>
       </c>
       <c r="CD3" s="1">
         <v>15.349522</v>
       </c>
       <c r="CE3" s="1">
-        <v>1826.210000</v>
+        <v>1826.21</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1405.200000</v>
+        <v>-1405.2</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>55087.268847</v>
+        <v>55087.268846999999</v>
       </c>
       <c r="B4" s="1">
         <v>15.302019</v>
       </c>
       <c r="C4" s="1">
-        <v>899.962000</v>
+        <v>899.96199999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.877000</v>
+        <v>-197.87700000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>55097.980982</v>
+        <v>55097.980982000001</v>
       </c>
       <c r="G4" s="1">
         <v>15.304995</v>
       </c>
       <c r="H4" s="1">
-        <v>917.847000</v>
+        <v>917.84699999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.093000</v>
+        <v>-167.09299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>55108.444093</v>
+        <v>55108.444092999998</v>
       </c>
       <c r="L4" s="1">
-        <v>15.307901</v>
+        <v>15.307900999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>940.155000</v>
+        <v>940.15499999999997</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.072000</v>
+        <v>-119.072</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>55118.958742</v>
+        <v>55118.958742000003</v>
       </c>
       <c r="Q4" s="1">
         <v>15.310822</v>
       </c>
       <c r="R4" s="1">
-        <v>946.852000</v>
+        <v>946.85199999999998</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.005000</v>
+        <v>-103.005</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>55129.221466</v>
+        <v>55129.221466000003</v>
       </c>
       <c r="V4" s="1">
         <v>15.313673</v>
       </c>
       <c r="W4" s="1">
-        <v>953.384000</v>
+        <v>953.38400000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.219400</v>
+        <v>-88.219399999999993</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>55139.689034</v>
+        <v>55139.689034000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>15.316580</v>
+        <v>15.31658</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.557000</v>
+        <v>960.55700000000002</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.760300</v>
+        <v>-76.760300000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>55149.956717</v>
+        <v>55149.956717000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>15.319432</v>
+        <v>15.319432000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.188000</v>
+        <v>965.18799999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.686300</v>
+        <v>-74.686300000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>55160.108832</v>
+        <v>55160.108831999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>15.322252</v>
+        <v>15.322252000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.447000</v>
+        <v>972.447</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.552900</v>
+        <v>-79.552899999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>55170.071970</v>
+        <v>55170.071969999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>15.325020</v>
+        <v>15.32502</v>
       </c>
       <c r="AQ4" s="1">
-        <v>980.635000</v>
+        <v>980.63499999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.271100</v>
+        <v>-91.271100000000004</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>55181.021661</v>
+        <v>55181.021660999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>15.328062</v>
+        <v>15.328061999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.644000</v>
+        <v>990.64400000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.020000</v>
+        <v>-109.02</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>55191.755077</v>
+        <v>55191.755077000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>15.331043</v>
+        <v>15.331042999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.012000</v>
+        <v>999.01199999999994</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.681000</v>
+        <v>-124.681</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>55202.293575</v>
+        <v>55202.293575000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>15.333970</v>
+        <v>15.333970000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.210000</v>
+        <v>1038.21</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.365000</v>
+        <v>-196.36500000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>55213.347914</v>
+        <v>55213.347913999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>15.337041</v>
+        <v>15.337040999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL4" s="1">
-        <v>-311.946000</v>
+        <v>-311.94600000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>55224.856090</v>
+        <v>55224.856090000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>15.340238</v>
+        <v>15.340237999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1213.890000</v>
+        <v>1213.8900000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-493.446000</v>
+        <v>-493.44600000000003</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>55236.482842</v>
+        <v>55236.482841999998</v>
       </c>
       <c r="BT4" s="1">
         <v>15.343467</v>
       </c>
       <c r="BU4" s="1">
-        <v>1335.730000</v>
+        <v>1335.73</v>
       </c>
       <c r="BV4" s="1">
-        <v>-692.156000</v>
+        <v>-692.15599999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>55247.243020</v>
+        <v>55247.243020000002</v>
       </c>
       <c r="BY4" s="1">
         <v>15.346456</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1471.020000</v>
+        <v>1471.02</v>
       </c>
       <c r="CA4" s="1">
-        <v>-903.693000</v>
+        <v>-903.69299999999998</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>55258.818685</v>
+        <v>55258.818684999998</v>
       </c>
       <c r="CD4" s="1">
         <v>15.349672</v>
       </c>
       <c r="CE4" s="1">
-        <v>1825.280000</v>
+        <v>1825.28</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1404.210000</v>
+        <v>-1404.21</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>55087.934479</v>
+        <v>55087.934479000003</v>
       </c>
       <c r="B5" s="1">
         <v>15.302204</v>
       </c>
       <c r="C5" s="1">
-        <v>900.102000</v>
+        <v>900.10199999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-197.713000</v>
+        <v>-197.71299999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>55098.357409</v>
+        <v>55098.357408999997</v>
       </c>
       <c r="G5" s="1">
         <v>15.305099</v>
       </c>
       <c r="H5" s="1">
-        <v>917.766000</v>
+        <v>917.76599999999996</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.385000</v>
+        <v>-167.38499999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>55108.818531</v>
+        <v>55108.818530999997</v>
       </c>
       <c r="L5" s="1">
         <v>15.308005</v>
       </c>
       <c r="M5" s="1">
-        <v>940.089000</v>
+        <v>940.08900000000006</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.068000</v>
+        <v>-119.068</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>55119.306439</v>
       </c>
       <c r="Q5" s="1">
-        <v>15.310918</v>
+        <v>15.310917999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>946.832000</v>
+        <v>946.83199999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.026000</v>
+        <v>-103.026</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>55129.567671</v>
+        <v>55129.567670999997</v>
       </c>
       <c r="V5" s="1">
-        <v>15.313769</v>
+        <v>15.313769000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>953.393000</v>
+        <v>953.39300000000003</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.239400</v>
+        <v>-88.239400000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>55140.034485</v>
+        <v>55140.034484999996</v>
       </c>
       <c r="AA5" s="1">
-        <v>15.316676</v>
+        <v>15.316675999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.553000</v>
+        <v>960.553</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.652400</v>
+        <v>-76.6524</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>55150.378844</v>
+        <v>55150.378843999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>15.319550</v>
+        <v>15.31955</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.294000</v>
+        <v>965.29399999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.670200</v>
+        <v>-74.670199999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>55160.521504</v>
+        <v>55160.521503999997</v>
       </c>
       <c r="AK5" s="1">
         <v>15.322367</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.473000</v>
+        <v>972.47299999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.552900</v>
+        <v>-79.552899999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>55170.377506</v>
+        <v>55170.377505999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>15.325105</v>
+        <v>15.325105000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>980.626000</v>
+        <v>980.62599999999998</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.265900</v>
+        <v>-91.265900000000002</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>55181.405556</v>
+        <v>55181.405555999998</v>
       </c>
       <c r="AU5" s="1">
         <v>15.328168</v>
       </c>
       <c r="AV5" s="1">
-        <v>990.637000</v>
+        <v>990.63699999999994</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.002000</v>
+        <v>-109.002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>55192.113312</v>
+        <v>55192.113312000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>15.331143</v>
+        <v>15.331143000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>998.974000</v>
+        <v>998.97400000000005</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.671000</v>
+        <v>-124.67100000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>55202.655159</v>
+        <v>55202.655159000002</v>
       </c>
       <c r="BE5" s="1">
         <v>15.334071</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.200000</v>
+        <v>1038.2</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.387000</v>
+        <v>-196.387</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>55213.724904</v>
+        <v>55213.724904000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>15.337146</v>
+        <v>15.337146000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL5" s="1">
-        <v>-311.956000</v>
+        <v>-311.95600000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>55225.672538</v>
+        <v>55225.672537999999</v>
       </c>
       <c r="BO5" s="1">
         <v>15.340465</v>
       </c>
       <c r="BP5" s="1">
-        <v>1213.890000</v>
+        <v>1213.8900000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-493.467000</v>
+        <v>-493.46699999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>55236.910858</v>
+        <v>55236.910858000003</v>
       </c>
       <c r="BT5" s="1">
         <v>15.343586</v>
       </c>
       <c r="BU5" s="1">
-        <v>1335.640000</v>
+        <v>1335.64</v>
       </c>
       <c r="BV5" s="1">
-        <v>-692.150000</v>
+        <v>-692.15</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>55247.675035</v>
       </c>
       <c r="BY5" s="1">
-        <v>15.346576</v>
+        <v>15.346576000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1471.050000</v>
+        <v>1471.05</v>
       </c>
       <c r="CA5" s="1">
-        <v>-903.881000</v>
+        <v>-903.88099999999997</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>55259.362268</v>
+        <v>55259.362267999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>15.349823</v>
+        <v>15.349823000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1825.530000</v>
+        <v>1825.53</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1405.730000</v>
+        <v>-1405.73</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>55088.290607</v>
+        <v>55088.290607000003</v>
       </c>
       <c r="B6" s="1">
         <v>15.302303</v>
       </c>
       <c r="C6" s="1">
-        <v>900.078000</v>
+        <v>900.07799999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.920000</v>
+        <v>-197.92</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>55098.711056</v>
       </c>
       <c r="G6" s="1">
-        <v>15.305198</v>
+        <v>15.305198000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>917.239000</v>
+        <v>917.23900000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.273000</v>
+        <v>-167.273</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>55109.162297</v>
+        <v>55109.162297000003</v>
       </c>
       <c r="L6" s="1">
-        <v>15.308101</v>
+        <v>15.308101000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>940.024000</v>
+        <v>940.024</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.101000</v>
+        <v>-119.101</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>55119.657606</v>
+        <v>55119.657606000001</v>
       </c>
       <c r="Q6" s="1">
         <v>15.311016</v>
       </c>
       <c r="R6" s="1">
-        <v>946.831000</v>
+        <v>946.83100000000002</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.046000</v>
+        <v>-103.04600000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>55129.988279</v>
+        <v>55129.988278999997</v>
       </c>
       <c r="V6" s="1">
         <v>15.313886</v>
       </c>
       <c r="W6" s="1">
-        <v>953.276000</v>
+        <v>953.27599999999995</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.203200</v>
+        <v>-88.203199999999995</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>55140.464777</v>
+        <v>55140.464777000001</v>
       </c>
       <c r="AA6" s="1">
         <v>15.316796</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.554000</v>
+        <v>960.55399999999997</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.753800</v>
+        <v>-76.753799999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>55150.659084</v>
+        <v>55150.659083999999</v>
       </c>
       <c r="AF6" s="1">
         <v>15.319628</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.338000</v>
+        <v>965.33799999999997</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.577800</v>
+        <v>-74.577799999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>55160.805215</v>
       </c>
       <c r="AK6" s="1">
-        <v>15.322446</v>
+        <v>15.322445999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.467000</v>
+        <v>972.46699999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.541800</v>
+        <v>-79.541799999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>55170.737105</v>
@@ -1629,330 +2045,330 @@
         <v>15.325205</v>
       </c>
       <c r="AQ6" s="1">
-        <v>980.630000</v>
+        <v>980.63</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.277800</v>
+        <v>-91.277799999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>55181.769619</v>
+        <v>55181.769618999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>15.328269</v>
+        <v>15.328269000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.610000</v>
+        <v>990.61</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.005000</v>
+        <v>-109.005</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>55192.471797</v>
+        <v>55192.471796999998</v>
       </c>
       <c r="AZ6" s="1">
         <v>15.331242</v>
       </c>
       <c r="BA6" s="1">
-        <v>998.994000</v>
+        <v>998.99400000000003</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.681000</v>
+        <v>-124.681</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>55203.376838</v>
+        <v>55203.376837999996</v>
       </c>
       <c r="BE6" s="1">
-        <v>15.334271</v>
+        <v>15.334270999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.200000</v>
+        <v>1038.2</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.369000</v>
+        <v>-196.369</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>55214.474823</v>
+        <v>55214.474822999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>15.337354</v>
+        <v>15.337353999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.460000</v>
+        <v>1105.46</v>
       </c>
       <c r="BL6" s="1">
-        <v>-311.934000</v>
+        <v>-311.93400000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>55226.090171</v>
+        <v>55226.090171000003</v>
       </c>
       <c r="BO6" s="1">
         <v>15.340581</v>
       </c>
       <c r="BP6" s="1">
-        <v>1213.900000</v>
+        <v>1213.9000000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-493.466000</v>
+        <v>-493.46600000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>55237.321049</v>
+        <v>55237.321048999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>15.343700</v>
+        <v>15.3437</v>
       </c>
       <c r="BU6" s="1">
-        <v>1335.640000</v>
+        <v>1335.64</v>
       </c>
       <c r="BV6" s="1">
-        <v>-692.121000</v>
+        <v>-692.12099999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>55248.096139</v>
+        <v>55248.096139000001</v>
       </c>
       <c r="BY6" s="1">
         <v>15.346693</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1471.030000</v>
+        <v>1471.03</v>
       </c>
       <c r="CA6" s="1">
-        <v>-903.834000</v>
+        <v>-903.83399999999995</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>55260.201532</v>
+        <v>55260.201531999999</v>
       </c>
       <c r="CD6" s="1">
         <v>15.350056</v>
       </c>
       <c r="CE6" s="1">
-        <v>1824.700000</v>
+        <v>1824.7</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1404.400000</v>
+        <v>-1404.4</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>55088.631885</v>
+        <v>55088.631885000003</v>
       </c>
       <c r="B7" s="1">
         <v>15.302398</v>
       </c>
       <c r="C7" s="1">
-        <v>900.032000</v>
+        <v>900.03200000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>-197.827000</v>
+        <v>-197.827</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>55099.055778</v>
+        <v>55099.055778000002</v>
       </c>
       <c r="G7" s="1">
-        <v>15.305293</v>
+        <v>15.305293000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>917.281000</v>
+        <v>917.28099999999995</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.419000</v>
+        <v>-167.41900000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>55109.508499</v>
+        <v>55109.508499000003</v>
       </c>
       <c r="L7" s="1">
         <v>15.308197</v>
       </c>
       <c r="M7" s="1">
-        <v>940.038000</v>
+        <v>940.03800000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.048000</v>
+        <v>-119.048</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>55120.071270</v>
+        <v>55120.07127</v>
       </c>
       <c r="Q7" s="1">
         <v>15.311131</v>
       </c>
       <c r="R7" s="1">
-        <v>946.815000</v>
+        <v>946.81500000000005</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.076000</v>
+        <v>-103.07599999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>55130.278935</v>
+        <v>55130.278935000002</v>
       </c>
       <c r="V7" s="1">
-        <v>15.313966</v>
+        <v>15.313966000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>953.282000</v>
+        <v>953.28200000000004</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.241600</v>
+        <v>-88.241600000000005</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>55140.737081</v>
+        <v>55140.737080999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>15.316871</v>
+        <v>15.316871000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.579000</v>
+        <v>960.57899999999995</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.711000</v>
+        <v>-76.710999999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>55151.002779</v>
+        <v>55151.002779000002</v>
       </c>
       <c r="AF7" s="1">
         <v>15.319723</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.231000</v>
+        <v>965.23099999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.707600</v>
+        <v>-74.707599999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>55161.156384</v>
+        <v>55161.156384000002</v>
       </c>
       <c r="AK7" s="1">
         <v>15.322543</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.440000</v>
+        <v>972.44</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.546000</v>
+        <v>-79.546000000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>55171.098195</v>
+        <v>55171.098194999999</v>
       </c>
       <c r="AP7" s="1">
         <v>15.325305</v>
       </c>
       <c r="AQ7" s="1">
-        <v>980.643000</v>
+        <v>980.64300000000003</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.249200</v>
+        <v>-91.249200000000002</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>55182.507698</v>
+        <v>55182.507698000001</v>
       </c>
       <c r="AU7" s="1">
         <v>15.328474</v>
       </c>
       <c r="AV7" s="1">
-        <v>990.632000</v>
+        <v>990.63199999999995</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.011000</v>
+        <v>-109.011</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>55193.188516</v>
+        <v>55193.188516000002</v>
       </c>
       <c r="AZ7" s="1">
         <v>15.331441</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.007000</v>
+        <v>999.00699999999995</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.679000</v>
+        <v>-124.679</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>55203.738945</v>
+        <v>55203.738944999997</v>
       </c>
       <c r="BE7" s="1">
         <v>15.334372</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.190000</v>
+        <v>1038.19</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.363000</v>
+        <v>-196.363</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>55214.848352</v>
+        <v>55214.848352000001</v>
       </c>
       <c r="BJ7" s="1">
         <v>15.337458</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.460000</v>
+        <v>1105.46</v>
       </c>
       <c r="BL7" s="1">
-        <v>-311.937000</v>
+        <v>-311.93700000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>55226.486439</v>
@@ -1961,225 +2377,225 @@
         <v>15.340691</v>
       </c>
       <c r="BP7" s="1">
-        <v>1213.910000</v>
+        <v>1213.9100000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-493.469000</v>
+        <v>-493.46899999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>55238.069513</v>
+        <v>55238.069513000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>15.343908</v>
+        <v>15.343908000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1335.620000</v>
+        <v>1335.62</v>
       </c>
       <c r="BV7" s="1">
-        <v>-692.082000</v>
+        <v>-692.08199999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>55248.832239</v>
+        <v>55248.832239000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>15.346898</v>
+        <v>15.346897999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1471.030000</v>
+        <v>1471.03</v>
       </c>
       <c r="CA7" s="1">
-        <v>-903.862000</v>
+        <v>-903.86199999999997</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>55260.438092</v>
+        <v>55260.438091999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>15.350122</v>
+        <v>15.350122000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1824.330000</v>
+        <v>1824.33</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1404.800000</v>
+        <v>-1404.8</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>55088.974093</v>
+        <v>55088.974092999997</v>
       </c>
       <c r="B8" s="1">
         <v>15.302493</v>
       </c>
       <c r="C8" s="1">
-        <v>900.017000</v>
+        <v>900.01700000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-197.804000</v>
+        <v>-197.804</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>55099.484856</v>
+        <v>55099.484856000003</v>
       </c>
       <c r="G8" s="1">
         <v>15.305412</v>
       </c>
       <c r="H8" s="1">
-        <v>917.279000</v>
+        <v>917.279</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.612000</v>
+        <v>-167.61199999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>55110.000035</v>
+        <v>55110.000034999997</v>
       </c>
       <c r="L8" s="1">
-        <v>15.308333</v>
+        <v>15.308332999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>940.023000</v>
+        <v>940.02300000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.090000</v>
+        <v>-119.09</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>55120.371875</v>
+        <v>55120.371874999997</v>
       </c>
       <c r="Q8" s="1">
         <v>15.311214</v>
       </c>
       <c r="R8" s="1">
-        <v>946.804000</v>
+        <v>946.80399999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.052000</v>
+        <v>-103.05200000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>55130.624151</v>
+        <v>55130.624151000004</v>
       </c>
       <c r="V8" s="1">
         <v>15.314062</v>
       </c>
       <c r="W8" s="1">
-        <v>953.440000</v>
+        <v>953.44</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.236100</v>
+        <v>-88.236099999999993</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>55141.083799</v>
       </c>
       <c r="AA8" s="1">
-        <v>15.316968</v>
+        <v>15.316967999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.498000</v>
+        <v>960.49800000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.732700</v>
+        <v>-76.732699999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>55151.346042</v>
+        <v>55151.346041999997</v>
       </c>
       <c r="AF8" s="1">
         <v>15.319818</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.277000</v>
+        <v>965.27700000000004</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.608600</v>
+        <v>-74.608599999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>55161.504077</v>
+        <v>55161.504076999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>15.322640</v>
+        <v>15.32264</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.453000</v>
+        <v>972.45299999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.548000</v>
+        <v>-79.548000000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>55171.815904</v>
+        <v>55171.815904000003</v>
       </c>
       <c r="AP8" s="1">
         <v>15.325504</v>
       </c>
       <c r="AQ8" s="1">
-        <v>980.614000</v>
+        <v>980.61400000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.256300</v>
+        <v>-91.256299999999996</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>55182.890113</v>
+        <v>55182.890113000001</v>
       </c>
       <c r="AU8" s="1">
         <v>15.328581</v>
       </c>
       <c r="AV8" s="1">
-        <v>990.624000</v>
+        <v>990.62400000000002</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.015000</v>
+        <v>-109.015</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>55193.547124</v>
+        <v>55193.547123999997</v>
       </c>
       <c r="AZ8" s="1">
         <v>15.331541</v>
       </c>
       <c r="BA8" s="1">
-        <v>998.997000</v>
+        <v>998.99699999999996</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.690000</v>
+        <v>-124.69</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>55204.100005</v>
@@ -2188,165 +2604,165 @@
         <v>15.334472</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.240000</v>
+        <v>1038.24</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.368000</v>
+        <v>-196.36799999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>55215.225302</v>
+        <v>55215.225301999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>15.337563</v>
+        <v>15.337562999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.460000</v>
+        <v>1105.46</v>
       </c>
       <c r="BL8" s="1">
-        <v>-311.935000</v>
+        <v>-311.935</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>55227.232424</v>
+        <v>55227.232424000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>15.340898</v>
+        <v>15.340897999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1213.900000</v>
+        <v>1213.9000000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-493.488000</v>
+        <v>-493.488</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>55238.179163</v>
+        <v>55238.179163000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>15.343939</v>
+        <v>15.343939000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1335.600000</v>
+        <v>1335.6</v>
       </c>
       <c r="BV8" s="1">
-        <v>-691.983000</v>
+        <v>-691.98299999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>55248.945322</v>
       </c>
       <c r="BY8" s="1">
-        <v>15.346929</v>
+        <v>15.346928999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1471.130000</v>
+        <v>1471.13</v>
       </c>
       <c r="CA8" s="1">
-        <v>-903.902000</v>
+        <v>-903.90200000000004</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>55260.957900</v>
+        <v>55260.957900000001</v>
       </c>
       <c r="CD8" s="1">
         <v>15.350266</v>
       </c>
       <c r="CE8" s="1">
-        <v>1825.350000</v>
+        <v>1825.35</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1405.800000</v>
+        <v>-1405.8</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>55089.399199</v>
+        <v>55089.399198999999</v>
       </c>
       <c r="B9" s="1">
-        <v>15.302611</v>
+        <v>15.302611000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>899.976000</v>
+        <v>899.976</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.804000</v>
+        <v>-197.804</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>55099.754179</v>
+        <v>55099.754179000003</v>
       </c>
       <c r="G9" s="1">
-        <v>15.305487</v>
+        <v>15.305486999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>917.024000</v>
+        <v>917.024</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.120000</v>
+        <v>-167.12</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>55110.202866</v>
       </c>
       <c r="L9" s="1">
-        <v>15.308390</v>
+        <v>15.308389999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>940.110000</v>
+        <v>940.11</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.115000</v>
+        <v>-119.11499999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>55120.722517</v>
+        <v>55120.722517000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>15.311312</v>
+        <v>15.311311999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>946.785000</v>
+        <v>946.78499999999997</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.019000</v>
+        <v>-103.01900000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>55130.967878</v>
+        <v>55130.967878000003</v>
       </c>
       <c r="V9" s="1">
-        <v>15.314158</v>
+        <v>15.314158000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>953.419000</v>
+        <v>953.41899999999998</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.167500</v>
+        <v>-88.167500000000004</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>55141.431481</v>
@@ -2355,497 +2771,497 @@
         <v>15.317064</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.505000</v>
+        <v>960.505</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.776800</v>
+        <v>-76.776799999999994</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>55152.034492</v>
+        <v>55152.034491999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>15.320010</v>
+        <v>15.32001</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.265000</v>
+        <v>965.26499999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.673900</v>
+        <v>-74.673900000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>55162.200989</v>
+        <v>55162.200988999997</v>
       </c>
       <c r="AK9" s="1">
         <v>15.322834</v>
       </c>
       <c r="AL9" s="1">
-        <v>972.472000</v>
+        <v>972.47199999999998</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.538000</v>
+        <v>-79.537999999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>55172.176497</v>
       </c>
       <c r="AP9" s="1">
-        <v>15.325605</v>
+        <v>15.325604999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>980.627000</v>
+        <v>980.62699999999995</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.244100</v>
+        <v>-91.244100000000003</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>55183.255138</v>
       </c>
       <c r="AU9" s="1">
-        <v>15.328682</v>
+        <v>15.328682000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>990.649000</v>
+        <v>990.649</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.018000</v>
+        <v>-109.018</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>55193.906723</v>
       </c>
       <c r="AZ9" s="1">
-        <v>15.331641</v>
+        <v>15.331640999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.000000</v>
+        <v>999</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.663000</v>
+        <v>-124.663</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>55204.773077</v>
+        <v>55204.773076999998</v>
       </c>
       <c r="BE9" s="1">
         <v>15.334659</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.200000</v>
+        <v>1038.2</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.390000</v>
+        <v>-196.39</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>55215.910260</v>
+        <v>55215.910259999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>15.337753</v>
+        <v>15.337752999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL9" s="1">
-        <v>-311.923000</v>
+        <v>-311.923</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>55227.343358</v>
+        <v>55227.343357999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>15.340929</v>
+        <v>15.340928999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1213.840000</v>
+        <v>1213.8399999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-493.463000</v>
+        <v>-493.46300000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>55238.617623</v>
+        <v>55238.617622999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>15.344060</v>
+        <v>15.344060000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1335.490000</v>
+        <v>1335.49</v>
       </c>
       <c r="BV9" s="1">
-        <v>-692.036000</v>
+        <v>-692.03599999999994</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>55249.392186</v>
+        <v>55249.392185999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>15.347053</v>
+        <v>15.347053000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1470.900000</v>
+        <v>1470.9</v>
       </c>
       <c r="CA9" s="1">
-        <v>-903.845000</v>
+        <v>-903.84500000000003</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>55261.475753</v>
+        <v>55261.475752999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>15.350410</v>
+        <v>15.35041</v>
       </c>
       <c r="CE9" s="1">
-        <v>1825.220000</v>
+        <v>1825.22</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1405.460000</v>
+        <v>-1405.46</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>55089.669484</v>
+        <v>55089.669483999998</v>
       </c>
       <c r="B10" s="1">
         <v>15.302686</v>
       </c>
       <c r="C10" s="1">
-        <v>899.940000</v>
+        <v>899.94</v>
       </c>
       <c r="D10" s="1">
-        <v>-197.710000</v>
+        <v>-197.71</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>55100.096880</v>
+        <v>55100.096879999997</v>
       </c>
       <c r="G10" s="1">
-        <v>15.305582</v>
+        <v>15.305581999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>917.458000</v>
+        <v>917.45799999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.332000</v>
+        <v>-167.33199999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>55110.547120</v>
+        <v>55110.547120000003</v>
       </c>
       <c r="L10" s="1">
-        <v>15.308485</v>
+        <v>15.308484999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>940.013000</v>
+        <v>940.01300000000003</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.088000</v>
+        <v>-119.08799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>55121.070265</v>
+        <v>55121.070265000002</v>
       </c>
       <c r="Q10" s="1">
         <v>15.311408</v>
       </c>
       <c r="R10" s="1">
-        <v>946.821000</v>
+        <v>946.82100000000003</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.996000</v>
+        <v>-102.996</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>55131.653846</v>
+        <v>55131.653846000001</v>
       </c>
       <c r="V10" s="1">
-        <v>15.314348</v>
+        <v>15.314348000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>953.422000</v>
+        <v>953.42200000000003</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.196700</v>
+        <v>-88.196700000000007</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>55142.126904</v>
+        <v>55142.126903999997</v>
       </c>
       <c r="AA10" s="1">
         <v>15.317257</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.504000</v>
+        <v>960.50400000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.762100</v>
+        <v>-76.762100000000004</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>55152.375705</v>
+        <v>55152.375704999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>15.320104</v>
+        <v>15.320104000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.140000</v>
+        <v>965.14</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.730700</v>
+        <v>-74.730699999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>55162.548653</v>
+        <v>55162.548652999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>15.322930</v>
+        <v>15.322929999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.476000</v>
+        <v>972.476</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.557200</v>
+        <v>-79.557199999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>55172.536633</v>
+        <v>55172.536633000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>15.325705</v>
+        <v>15.325704999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>980.634000</v>
+        <v>980.63400000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.257900</v>
+        <v>-91.257900000000006</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>55183.934192</v>
+        <v>55183.934192000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>15.328871</v>
+        <v>15.328870999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.622000</v>
+        <v>990.62199999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.027000</v>
+        <v>-109.027</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>55194.575826</v>
       </c>
       <c r="AZ10" s="1">
-        <v>15.331827</v>
+        <v>15.331827000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.019000</v>
+        <v>999.01900000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.693000</v>
+        <v>-124.693</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>55205.209061</v>
+        <v>55205.209061000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>15.334780</v>
+        <v>15.33478</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.210000</v>
+        <v>1038.21</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.386000</v>
+        <v>-196.386</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>55216.372517</v>
+        <v>55216.372517000003</v>
       </c>
       <c r="BJ10" s="1">
-        <v>15.337881</v>
+        <v>15.337880999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.420000</v>
+        <v>1105.42</v>
       </c>
       <c r="BL10" s="1">
-        <v>-311.944000</v>
+        <v>-311.94400000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>55227.725447</v>
+        <v>55227.725446999997</v>
       </c>
       <c r="BO10" s="1">
         <v>15.341035</v>
       </c>
       <c r="BP10" s="1">
-        <v>1213.900000</v>
+        <v>1213.9000000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-493.499000</v>
+        <v>-493.49900000000002</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>55239.030795</v>
+        <v>55239.030794999999</v>
       </c>
       <c r="BT10" s="1">
         <v>15.344175</v>
       </c>
       <c r="BU10" s="1">
-        <v>1335.500000</v>
+        <v>1335.5</v>
       </c>
       <c r="BV10" s="1">
-        <v>-692.007000</v>
+        <v>-692.00699999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>55249.824766</v>
+        <v>55249.824765999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>15.347174</v>
+        <v>15.347174000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1470.920000</v>
+        <v>1470.92</v>
       </c>
       <c r="CA10" s="1">
-        <v>-903.863000</v>
+        <v>-903.86300000000006</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>55262.028266</v>
+        <v>55262.028266000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>15.350563</v>
+        <v>15.350562999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1824.500000</v>
+        <v>1824.5</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1404.960000</v>
+        <v>-1404.96</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>55090.009281</v>
+        <v>55090.009280999999</v>
       </c>
       <c r="B11" s="1">
-        <v>15.302780</v>
+        <v>15.30278</v>
       </c>
       <c r="C11" s="1">
-        <v>899.935000</v>
+        <v>899.93499999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.711000</v>
+        <v>-197.71100000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>55100.442590</v>
+        <v>55100.442589999999</v>
       </c>
       <c r="G11" s="1">
         <v>15.305678</v>
       </c>
       <c r="H11" s="1">
-        <v>917.328000</v>
+        <v>917.32799999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.703000</v>
+        <v>-167.703</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>55111.236529</v>
+        <v>55111.236529000002</v>
       </c>
       <c r="L11" s="1">
-        <v>15.308677</v>
+        <v>15.308676999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>939.941000</v>
+        <v>939.94100000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.082000</v>
+        <v>-119.08199999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>55121.768592</v>
       </c>
       <c r="Q11" s="1">
-        <v>15.311602</v>
+        <v>15.311602000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>946.837000</v>
+        <v>946.83699999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.039000</v>
+        <v>-103.039</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>55131.997077</v>
@@ -2854,88 +3270,88 @@
         <v>15.314444</v>
       </c>
       <c r="W11" s="1">
-        <v>953.406000</v>
+        <v>953.40599999999995</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.190900</v>
+        <v>-88.190899999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>55142.476088</v>
+        <v>55142.476088000003</v>
       </c>
       <c r="AA11" s="1">
         <v>15.317354</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.560000</v>
+        <v>960.56</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.825300</v>
+        <v>-76.825299999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>55152.718968</v>
+        <v>55152.718968000001</v>
       </c>
       <c r="AF11" s="1">
-        <v>15.320200</v>
+        <v>15.3202</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.214000</v>
+        <v>965.21400000000006</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.664900</v>
+        <v>-74.664900000000003</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>55162.898828</v>
+        <v>55162.898827999998</v>
       </c>
       <c r="AK11" s="1">
         <v>15.323027</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.454000</v>
+        <v>972.45399999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.546300</v>
+        <v>-79.546300000000002</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>55173.216142</v>
+        <v>55173.216141999997</v>
       </c>
       <c r="AP11" s="1">
-        <v>15.325893</v>
+        <v>15.325893000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>980.653000</v>
+        <v>980.65300000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.265400</v>
+        <v>-91.2654</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>55184.379073</v>
+        <v>55184.379072999996</v>
       </c>
       <c r="AU11" s="1">
         <v>15.328994</v>
       </c>
       <c r="AV11" s="1">
-        <v>990.617000</v>
+        <v>990.61699999999996</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.003000</v>
+        <v>-109.003</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>55195.008833</v>
@@ -2944,165 +3360,165 @@
         <v>15.331947</v>
       </c>
       <c r="BA11" s="1">
-        <v>998.993000</v>
+        <v>998.99300000000005</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.690000</v>
+        <v>-124.69</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>55205.570674</v>
+        <v>55205.570674000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>15.334881</v>
+        <v>15.334880999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.230000</v>
+        <v>1038.23</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.393000</v>
+        <v>-196.393</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>55216.725668</v>
+        <v>55216.725667999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>15.337979</v>
+        <v>15.337979000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.440000</v>
+        <v>1105.44</v>
       </c>
       <c r="BL11" s="1">
-        <v>-311.961000</v>
+        <v>-311.96100000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>55228.148072</v>
+        <v>55228.148072000004</v>
       </c>
       <c r="BO11" s="1">
-        <v>15.341152</v>
+        <v>15.341151999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1213.920000</v>
+        <v>1213.92</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-493.455000</v>
+        <v>-493.45499999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>55239.460822</v>
+        <v>55239.460822000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>15.344295</v>
+        <v>15.344295000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1335.390000</v>
+        <v>1335.39</v>
       </c>
       <c r="BV11" s="1">
-        <v>-691.994000</v>
+        <v>-691.99400000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>55250.252285</v>
+        <v>55250.252285000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>15.347292</v>
+        <v>15.347291999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1470.990000</v>
+        <v>1470.99</v>
       </c>
       <c r="CA11" s="1">
-        <v>-903.910000</v>
+        <v>-903.91</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>55262.556007</v>
+        <v>55262.556006999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>15.350710</v>
+        <v>15.350709999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1825.760000</v>
+        <v>1825.76</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1405.960000</v>
+        <v>-1405.96</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>55090.352972</v>
+        <v>55090.352972000001</v>
       </c>
       <c r="B12" s="1">
-        <v>15.302876</v>
+        <v>15.302875999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>900.105000</v>
+        <v>900.10500000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.743000</v>
+        <v>-197.74299999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>55101.132029</v>
       </c>
       <c r="G12" s="1">
-        <v>15.305870</v>
+        <v>15.305870000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>917.313000</v>
+        <v>917.31299999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.837000</v>
+        <v>-167.83699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>55111.583271</v>
+        <v>55111.583271000003</v>
       </c>
       <c r="L12" s="1">
         <v>15.308773</v>
       </c>
       <c r="M12" s="1">
-        <v>940.103000</v>
+        <v>940.10299999999995</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.090000</v>
+        <v>-119.09</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>55122.115282</v>
+        <v>55122.115281999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>15.311699</v>
+        <v>15.311699000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>946.837000</v>
+        <v>946.83699999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.054000</v>
+        <v>-103.054</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>55132.341301</v>
@@ -3111,133 +3527,133 @@
         <v>15.314539</v>
       </c>
       <c r="W12" s="1">
-        <v>953.399000</v>
+        <v>953.399</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.226000</v>
+        <v>-88.225999999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>55142.826726</v>
+        <v>55142.826725999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>15.317452</v>
+        <v>15.317451999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.576000</v>
+        <v>960.57600000000002</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.781200</v>
+        <v>-76.781199999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>55153.371704</v>
+        <v>55153.371703999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>15.320381</v>
+        <v>15.320380999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.163000</v>
+        <v>965.16300000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.708200</v>
+        <v>-74.708200000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>55163.345723</v>
+        <v>55163.345722999999</v>
       </c>
       <c r="AK12" s="1">
         <v>15.323152</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.461000</v>
+        <v>972.46100000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.539500</v>
+        <v>-79.539500000000004</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>55173.645149</v>
+        <v>55173.645149000004</v>
       </c>
       <c r="AP12" s="1">
         <v>15.326013</v>
       </c>
       <c r="AQ12" s="1">
-        <v>980.601000</v>
+        <v>980.601</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.247800</v>
+        <v>-91.247799999999998</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>55184.742675</v>
+        <v>55184.742675000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>15.329095</v>
+        <v>15.329095000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>990.600000</v>
+        <v>990.6</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.005000</v>
+        <v>-109.005</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>55195.367442</v>
+        <v>55195.367442000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>15.332047</v>
+        <v>15.332046999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>998.983000</v>
+        <v>998.98299999999995</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.703000</v>
+        <v>-124.703</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>55205.930243</v>
+        <v>55205.930243000003</v>
       </c>
       <c r="BE12" s="1">
-        <v>15.334981</v>
+        <v>15.334981000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.210000</v>
+        <v>1038.21</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.366000</v>
+        <v>-196.36600000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>55217.331781</v>
+        <v>55217.331781000001</v>
       </c>
       <c r="BJ12" s="1">
         <v>15.338148</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.480000</v>
+        <v>1105.48</v>
       </c>
       <c r="BL12" s="1">
-        <v>-311.967000</v>
+        <v>-311.96699999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>55228.562693</v>
@@ -3246,1148 +3662,1148 @@
         <v>15.341267</v>
       </c>
       <c r="BP12" s="1">
-        <v>1213.910000</v>
+        <v>1213.9100000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-493.491000</v>
+        <v>-493.49099999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>55239.886888</v>
+        <v>55239.886888000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>15.344413</v>
+        <v>15.344412999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1335.410000</v>
+        <v>1335.41</v>
       </c>
       <c r="BV12" s="1">
-        <v>-691.945000</v>
+        <v>-691.94500000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>55250.664423</v>
+        <v>55250.664423000002</v>
       </c>
       <c r="BY12" s="1">
         <v>15.347407</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1471.040000</v>
+        <v>1471.04</v>
       </c>
       <c r="CA12" s="1">
-        <v>-903.864000</v>
+        <v>-903.86400000000003</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>55263.076311</v>
+        <v>55263.076310999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>15.350855</v>
+        <v>15.350854999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1826.020000</v>
+        <v>1826.02</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1404.250000</v>
+        <v>-1404.25</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>55091.035005</v>
+        <v>55091.035004999998</v>
       </c>
       <c r="B13" s="1">
         <v>15.303065</v>
       </c>
       <c r="C13" s="1">
-        <v>900.158000</v>
+        <v>900.15800000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.754000</v>
+        <v>-197.75399999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>55101.475790</v>
+        <v>55101.475789999997</v>
       </c>
       <c r="G13" s="1">
         <v>15.305965</v>
       </c>
       <c r="H13" s="1">
-        <v>917.087000</v>
+        <v>917.08699999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.262000</v>
+        <v>-167.262</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>55111.927456</v>
+        <v>55111.927455999998</v>
       </c>
       <c r="L13" s="1">
         <v>15.308869</v>
       </c>
       <c r="M13" s="1">
-        <v>940.155000</v>
+        <v>940.15499999999997</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.103000</v>
+        <v>-119.10299999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>55122.462513</v>
+        <v>55122.462512999999</v>
       </c>
       <c r="Q13" s="1">
         <v>15.311795</v>
       </c>
       <c r="R13" s="1">
-        <v>946.801000</v>
+        <v>946.80100000000004</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.062000</v>
+        <v>-103.062</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>55132.990105</v>
+        <v>55132.990104999997</v>
       </c>
       <c r="V13" s="1">
         <v>15.314719</v>
       </c>
       <c r="W13" s="1">
-        <v>953.352000</v>
+        <v>953.35199999999998</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.213800</v>
+        <v>-88.213800000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>55143.499797</v>
+        <v>55143.499796999997</v>
       </c>
       <c r="AA13" s="1">
         <v>15.317639</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.524000</v>
+        <v>960.524</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.755200</v>
+        <v>-76.755200000000002</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>55153.748633</v>
+        <v>55153.748633000003</v>
       </c>
       <c r="AF13" s="1">
-        <v>15.320486</v>
+        <v>15.320486000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.163000</v>
+        <v>965.16300000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.702600</v>
+        <v>-74.702600000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>55163.609142</v>
+        <v>55163.609142000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>15.323225</v>
+        <v>15.323225000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.462000</v>
+        <v>972.46199999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.556400</v>
+        <v>-79.556399999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>55174.005774</v>
+        <v>55174.005773999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>15.326113</v>
+        <v>15.326112999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>980.622000</v>
+        <v>980.62199999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.267700</v>
+        <v>-91.267700000000005</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>55185.106703</v>
+        <v>55185.106702999998</v>
       </c>
       <c r="AU13" s="1">
         <v>15.329196</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.633000</v>
+        <v>990.63300000000004</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.027000</v>
+        <v>-109.027</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>55195.725552</v>
+        <v>55195.725552000004</v>
       </c>
       <c r="AZ13" s="1">
         <v>15.332146</v>
       </c>
       <c r="BA13" s="1">
-        <v>998.998000</v>
+        <v>998.99800000000005</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.687000</v>
+        <v>-124.687</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>55206.346919</v>
+        <v>55206.346919000003</v>
       </c>
       <c r="BE13" s="1">
         <v>15.335096</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.220000</v>
+        <v>1038.22</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.388000</v>
+        <v>-196.38800000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>55217.501443</v>
+        <v>55217.501443000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>15.338195</v>
+        <v>15.338195000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.440000</v>
+        <v>1105.44</v>
       </c>
       <c r="BL13" s="1">
-        <v>-311.914000</v>
+        <v>-311.91399999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>55228.969908</v>
+        <v>55228.969907999999</v>
       </c>
       <c r="BO13" s="1">
         <v>15.341381</v>
       </c>
       <c r="BP13" s="1">
-        <v>1213.880000</v>
+        <v>1213.8800000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-493.505000</v>
+        <v>-493.505</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>55240.301509</v>
+        <v>55240.301508999997</v>
       </c>
       <c r="BT13" s="1">
         <v>15.344528</v>
       </c>
       <c r="BU13" s="1">
-        <v>1335.350000</v>
+        <v>1335.35</v>
       </c>
       <c r="BV13" s="1">
-        <v>-692.013000</v>
+        <v>-692.01300000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>55251.093961</v>
+        <v>55251.093960999999</v>
       </c>
       <c r="BY13" s="1">
         <v>15.347526</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1470.940000</v>
+        <v>1470.94</v>
       </c>
       <c r="CA13" s="1">
-        <v>-903.719000</v>
+        <v>-903.71900000000005</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>55263.614470</v>
+        <v>55263.61447</v>
       </c>
       <c r="CD13" s="1">
         <v>15.351004</v>
       </c>
       <c r="CE13" s="1">
-        <v>1824.970000</v>
+        <v>1824.97</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1405.610000</v>
+        <v>-1405.61</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>55091.378202</v>
       </c>
       <c r="B14" s="1">
-        <v>15.303161</v>
+        <v>15.303160999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>900.086000</v>
+        <v>900.08600000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.817000</v>
+        <v>-197.81700000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>55101.818030</v>
+        <v>55101.818030000002</v>
       </c>
       <c r="G14" s="1">
         <v>15.306061</v>
       </c>
       <c r="H14" s="1">
-        <v>917.606000</v>
+        <v>917.60599999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.689000</v>
+        <v>-167.68899999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>55112.586848</v>
+        <v>55112.586847999999</v>
       </c>
       <c r="L14" s="1">
-        <v>15.309052</v>
+        <v>15.309051999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>940.088000</v>
+        <v>940.08799999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.025000</v>
+        <v>-119.02500000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>55123.125141</v>
+        <v>55123.125140999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>15.311979</v>
+        <v>15.311978999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>946.794000</v>
+        <v>946.79399999999998</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.994000</v>
+        <v>-102.994</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>55133.368020</v>
+        <v>55133.368020000002</v>
       </c>
       <c r="V14" s="1">
         <v>15.314824</v>
       </c>
       <c r="W14" s="1">
-        <v>953.404000</v>
+        <v>953.404</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.178700</v>
+        <v>-88.178700000000006</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>55143.872293</v>
       </c>
       <c r="AA14" s="1">
-        <v>15.317742</v>
+        <v>15.317742000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.466000</v>
+        <v>960.46600000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.780500</v>
+        <v>-76.780500000000004</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>55154.094344</v>
+        <v>55154.094343999997</v>
       </c>
       <c r="AF14" s="1">
         <v>15.320582</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.267000</v>
+        <v>965.26700000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.666700</v>
+        <v>-74.666700000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>55163.956795</v>
+        <v>55163.956794999998</v>
       </c>
       <c r="AK14" s="1">
         <v>15.323321</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.462000</v>
+        <v>972.46199999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.535900</v>
+        <v>-79.535899999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>55174.367852</v>
+        <v>55174.367852000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>15.326213</v>
+        <v>15.326212999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>980.635000</v>
+        <v>980.63499999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.269300</v>
+        <v>-91.269300000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>55185.513917</v>
+        <v>55185.513916999997</v>
       </c>
       <c r="AU14" s="1">
         <v>15.329309</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.611000</v>
+        <v>990.61099999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.020000</v>
+        <v>-109.02</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>55196.145199</v>
+        <v>55196.145198999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>15.332263</v>
+        <v>15.332262999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>998.973000</v>
+        <v>998.97299999999996</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.689000</v>
+        <v>-124.68899999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>55206.652946</v>
+        <v>55206.652946000002</v>
       </c>
       <c r="BE14" s="1">
         <v>15.335181</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.200000</v>
+        <v>1038.2</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.373000</v>
+        <v>-196.37299999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>55217.879363</v>
       </c>
       <c r="BJ14" s="1">
-        <v>15.338300</v>
+        <v>15.3383</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.430000</v>
+        <v>1105.43</v>
       </c>
       <c r="BL14" s="1">
-        <v>-311.955000</v>
+        <v>-311.95499999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>55229.366244</v>
+        <v>55229.366243999997</v>
       </c>
       <c r="BO14" s="1">
         <v>15.341491</v>
       </c>
       <c r="BP14" s="1">
-        <v>1213.900000</v>
+        <v>1213.9000000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-493.469000</v>
+        <v>-493.46899999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>55240.733526</v>
+        <v>55240.733526000004</v>
       </c>
       <c r="BT14" s="1">
-        <v>15.344648</v>
+        <v>15.344647999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1335.270000</v>
+        <v>1335.27</v>
       </c>
       <c r="BV14" s="1">
-        <v>-692.015000</v>
+        <v>-692.01499999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>55251.508646</v>
+        <v>55251.508646000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>15.347641</v>
+        <v>15.347640999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1470.990000</v>
+        <v>1470.99</v>
       </c>
       <c r="CA14" s="1">
-        <v>-903.771000</v>
+        <v>-903.77099999999996</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>55264.154118</v>
+        <v>55264.154117999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>15.351154</v>
+        <v>15.351153999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1826.130000</v>
+        <v>1826.13</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1404.970000</v>
+        <v>-1404.97</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>55091.746266</v>
+        <v>55091.746266000002</v>
       </c>
       <c r="B15" s="1">
-        <v>15.303263</v>
+        <v>15.303262999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>900.006000</v>
+        <v>900.00599999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>-197.751000</v>
+        <v>-197.751</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>55102.483661</v>
+        <v>55102.483660999998</v>
       </c>
       <c r="G15" s="1">
-        <v>15.306245</v>
+        <v>15.306245000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>917.442000</v>
+        <v>917.44200000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.803000</v>
+        <v>-166.803</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>55112.965581</v>
+        <v>55112.965580999997</v>
       </c>
       <c r="L15" s="1">
-        <v>15.309157</v>
+        <v>15.309157000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>940.213000</v>
+        <v>940.21299999999997</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.185000</v>
+        <v>-119.185</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>55123.507552</v>
+        <v>55123.507552000003</v>
       </c>
       <c r="Q15" s="1">
         <v>15.312085</v>
       </c>
       <c r="R15" s="1">
-        <v>946.811000</v>
+        <v>946.81100000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.997000</v>
+        <v>-102.997</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>55133.712244</v>
+        <v>55133.712244000002</v>
       </c>
       <c r="V15" s="1">
-        <v>15.314920</v>
+        <v>15.314920000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>953.314000</v>
+        <v>953.31399999999996</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.165000</v>
+        <v>-88.165000000000006</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>55144.219534</v>
+        <v>55144.219534000003</v>
       </c>
       <c r="AA15" s="1">
-        <v>15.317839</v>
+        <v>15.317838999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.488000</v>
+        <v>960.48800000000006</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.696600</v>
+        <v>-76.696600000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>55154.444023</v>
+        <v>55154.444022999996</v>
       </c>
       <c r="AF15" s="1">
         <v>15.320679</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.239000</v>
+        <v>965.23900000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.724500</v>
+        <v>-74.724500000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>55164.363050</v>
+        <v>55164.36305</v>
       </c>
       <c r="AK15" s="1">
-        <v>15.323434</v>
+        <v>15.323434000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.442000</v>
+        <v>972.44200000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.564700</v>
+        <v>-79.564700000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>55174.794380</v>
+        <v>55174.794379999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>15.326332</v>
+        <v>15.326332000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>980.619000</v>
+        <v>980.61900000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.259400</v>
+        <v>-91.259399999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>55185.835821</v>
+        <v>55185.835821000001</v>
       </c>
       <c r="AU15" s="1">
         <v>15.329399</v>
       </c>
       <c r="AV15" s="1">
-        <v>990.629000</v>
+        <v>990.62900000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.997000</v>
+        <v>-108.997</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>55196.444255</v>
+        <v>55196.444255000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>15.332346</v>
+        <v>15.332345999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.008000</v>
+        <v>999.00800000000004</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.704000</v>
+        <v>-124.70399999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>55207.014034</v>
       </c>
       <c r="BE15" s="1">
-        <v>15.335282</v>
+        <v>15.335281999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.210000</v>
+        <v>1038.21</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.392000</v>
+        <v>-196.392</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>55218.254866</v>
+        <v>55218.254866000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>15.338404</v>
+        <v>15.338404000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.440000</v>
+        <v>1105.44</v>
       </c>
       <c r="BL15" s="1">
-        <v>-311.922000</v>
+        <v>-311.92200000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>55229.788836</v>
       </c>
       <c r="BO15" s="1">
-        <v>15.341608</v>
+        <v>15.341608000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1213.910000</v>
+        <v>1213.9100000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-493.499000</v>
+        <v>-493.49900000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>55241.160084</v>
+        <v>55241.160084000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>15.344767</v>
+        <v>15.344766999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1335.230000</v>
+        <v>1335.23</v>
       </c>
       <c r="BV15" s="1">
-        <v>-692.003000</v>
+        <v>-692.00300000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>55252.409885</v>
+        <v>55252.409885000001</v>
       </c>
       <c r="BY15" s="1">
         <v>15.347892</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1471.000000</v>
+        <v>1471</v>
       </c>
       <c r="CA15" s="1">
-        <v>-903.914000</v>
+        <v>-903.91399999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>55264.694758</v>
+        <v>55264.694757999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>15.351304</v>
+        <v>15.351304000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1825.010000</v>
+        <v>1825.01</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1404.370000</v>
+        <v>-1404.37</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>55092.423769</v>
+        <v>55092.423769000001</v>
       </c>
       <c r="B16" s="1">
-        <v>15.303451</v>
+        <v>15.303451000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>899.972000</v>
+        <v>899.97199999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.787000</v>
+        <v>-197.78700000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>55102.856124</v>
+        <v>55102.856123999998</v>
       </c>
       <c r="G16" s="1">
-        <v>15.306349</v>
+        <v>15.306349000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>917.332000</v>
+        <v>917.33199999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.309000</v>
+        <v>-167.309</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>55113.310303</v>
+        <v>55113.310302999998</v>
       </c>
       <c r="L16" s="1">
         <v>15.309253</v>
       </c>
       <c r="M16" s="1">
-        <v>940.076000</v>
+        <v>940.07600000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.030000</v>
+        <v>-119.03</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>55123.858223</v>
+        <v>55123.858223000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>15.312183</v>
+        <v>15.312182999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>946.794000</v>
+        <v>946.79399999999998</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.017000</v>
+        <v>-103.017</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>55134.055971</v>
+        <v>55134.055971000002</v>
       </c>
       <c r="V16" s="1">
         <v>15.315016</v>
       </c>
       <c r="W16" s="1">
-        <v>953.461000</v>
+        <v>953.46100000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.200900</v>
+        <v>-88.200900000000004</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>55144.570660</v>
+        <v>55144.570659999998</v>
       </c>
       <c r="AA16" s="1">
         <v>15.317936</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.462000</v>
+        <v>960.46199999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.701600</v>
+        <v>-76.701599999999999</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>55154.865634</v>
+        <v>55154.865634000002</v>
       </c>
       <c r="AF16" s="1">
         <v>15.320796</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.231000</v>
+        <v>965.23099999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.699400</v>
+        <v>-74.699399999999997</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>55164.655657</v>
+        <v>55164.655657000003</v>
       </c>
       <c r="AK16" s="1">
         <v>15.323515</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.472000</v>
+        <v>972.47199999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.579600</v>
+        <v>-79.579599999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>55175.085035</v>
+        <v>55175.085034999996</v>
       </c>
       <c r="AP16" s="1">
-        <v>15.326413</v>
+        <v>15.326413000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>980.636000</v>
+        <v>980.63599999999997</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.255200</v>
+        <v>-91.255200000000002</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>55186.200912</v>
       </c>
       <c r="AU16" s="1">
-        <v>15.329500</v>
+        <v>15.329499999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.647000</v>
+        <v>990.64700000000005</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.000000</v>
+        <v>-109</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>55196.803856</v>
+        <v>55196.803855999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>15.332446</v>
+        <v>15.332445999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.001000</v>
+        <v>999.00099999999998</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.687000</v>
+        <v>-124.687</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>55207.374593</v>
       </c>
       <c r="BE16" s="1">
-        <v>15.335382</v>
+        <v>15.335381999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.210000</v>
+        <v>1038.21</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.367000</v>
+        <v>-196.36699999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>55219.004291</v>
+        <v>55219.004290999997</v>
       </c>
       <c r="BJ16" s="1">
-        <v>15.338612</v>
+        <v>15.338611999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.470000</v>
+        <v>1105.47</v>
       </c>
       <c r="BL16" s="1">
-        <v>-311.947000</v>
+        <v>-311.947</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>55230.602774</v>
+        <v>55230.602773999999</v>
       </c>
       <c r="BO16" s="1">
         <v>15.341834</v>
       </c>
       <c r="BP16" s="1">
-        <v>1213.910000</v>
+        <v>1213.9100000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-493.496000</v>
+        <v>-493.49599999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>55241.569283</v>
+        <v>55241.569282999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>15.344880</v>
+        <v>15.34488</v>
       </c>
       <c r="BU16" s="1">
-        <v>1335.220000</v>
+        <v>1335.22</v>
       </c>
       <c r="BV16" s="1">
-        <v>-692.052000</v>
+        <v>-692.05200000000002</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>55252.844874</v>
+        <v>55252.844874000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>15.348012</v>
+        <v>15.348012000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1470.980000</v>
+        <v>1470.98</v>
       </c>
       <c r="CA16" s="1">
-        <v>-903.869000</v>
+        <v>-903.86900000000003</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>55265.235396</v>
+        <v>55265.235395999996</v>
       </c>
       <c r="CD16" s="1">
         <v>15.351454</v>
       </c>
       <c r="CE16" s="1">
-        <v>1825.770000</v>
+        <v>1825.77</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1405.720000</v>
+        <v>-1405.72</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>55092.766504</v>
+        <v>55092.766503999999</v>
       </c>
       <c r="B17" s="1">
-        <v>15.303546</v>
+        <v>15.303546000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>900.119000</v>
+        <v>900.11900000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.730000</v>
+        <v>-197.73</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>55103.201339</v>
+        <v>55103.201338999999</v>
       </c>
       <c r="G17" s="1">
         <v>15.306445</v>
       </c>
       <c r="H17" s="1">
-        <v>917.010000</v>
+        <v>917.01</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.569000</v>
+        <v>-167.56899999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>55113.656013</v>
       </c>
       <c r="L17" s="1">
-        <v>15.309349</v>
+        <v>15.309348999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>940.012000</v>
+        <v>940.01199999999994</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.156000</v>
+        <v>-119.15600000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>55124.207407</v>
+        <v>55124.207407000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>15.312280</v>
+        <v>15.312279999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>946.820000</v>
+        <v>946.82</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.035000</v>
+        <v>-103.035</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>55134.475089</v>
@@ -4396,420 +4812,420 @@
         <v>15.315132</v>
       </c>
       <c r="W17" s="1">
-        <v>953.380000</v>
+        <v>953.38</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.145800</v>
+        <v>-88.145799999999994</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>55145.029988</v>
+        <v>55145.029988000002</v>
       </c>
       <c r="AA17" s="1">
         <v>15.318064</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.525000</v>
+        <v>960.52499999999998</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.746000</v>
+        <v>-76.745999999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>55155.146398</v>
+        <v>55155.146397999997</v>
       </c>
       <c r="AF17" s="1">
         <v>15.320874</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.108000</v>
+        <v>965.10799999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.560000</v>
+        <v>-74.56</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>55165.003354</v>
       </c>
       <c r="AK17" s="1">
-        <v>15.323612</v>
+        <v>15.323612000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.466000</v>
+        <v>972.46600000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.561600</v>
+        <v>-79.561599999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>55175.449596</v>
+        <v>55175.449595999999</v>
       </c>
       <c r="AP17" s="1">
         <v>15.326514</v>
       </c>
       <c r="AQ17" s="1">
-        <v>980.630000</v>
+        <v>980.63</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.253500</v>
+        <v>-91.253500000000003</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>55186.563955</v>
+        <v>55186.563954999998</v>
       </c>
       <c r="AU17" s="1">
         <v>15.329601</v>
       </c>
       <c r="AV17" s="1">
-        <v>990.604000</v>
+        <v>990.60400000000004</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.031000</v>
+        <v>-109.03100000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>55197.164942</v>
+        <v>55197.164942000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>15.332546</v>
+        <v>15.332546000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.002000</v>
+        <v>999.00199999999995</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.691000</v>
+        <v>-124.691</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>55208.097759</v>
+        <v>55208.097758999997</v>
       </c>
       <c r="BE17" s="1">
         <v>15.335583</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.220000</v>
+        <v>1038.22</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.393000</v>
+        <v>-196.393</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>55219.381249</v>
+        <v>55219.381248999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>15.338717</v>
+        <v>15.338717000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.460000</v>
+        <v>1105.46</v>
       </c>
       <c r="BL17" s="1">
-        <v>-311.965000</v>
+        <v>-311.96499999999997</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>55231.022851</v>
+        <v>55231.022851000002</v>
       </c>
       <c r="BO17" s="1">
         <v>15.341951</v>
       </c>
       <c r="BP17" s="1">
-        <v>1213.880000</v>
+        <v>1213.8800000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-493.506000</v>
+        <v>-493.50599999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>55242.001326</v>
+        <v>55242.001325999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>15.345000</v>
+        <v>15.345000000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1335.160000</v>
+        <v>1335.16</v>
       </c>
       <c r="BV17" s="1">
-        <v>-692.080000</v>
+        <v>-692.08</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>55253.574001</v>
+        <v>55253.574001000001</v>
       </c>
       <c r="BY17" s="1">
         <v>15.348215</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1470.980000</v>
+        <v>1470.98</v>
       </c>
       <c r="CA17" s="1">
-        <v>-903.882000</v>
+        <v>-903.88199999999995</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>55266.084053</v>
+        <v>55266.084052999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>15.351690</v>
+        <v>15.35169</v>
       </c>
       <c r="CE17" s="1">
-        <v>1824.600000</v>
+        <v>1824.6</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1404.830000</v>
+        <v>-1404.83</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>55093.117673</v>
+        <v>55093.117673000001</v>
       </c>
       <c r="B18" s="1">
         <v>15.303644</v>
       </c>
       <c r="C18" s="1">
-        <v>900.064000</v>
+        <v>900.06399999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.788000</v>
+        <v>-197.78800000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>55103.545562</v>
+        <v>55103.545561999999</v>
       </c>
       <c r="G18" s="1">
-        <v>15.306540</v>
+        <v>15.30654</v>
       </c>
       <c r="H18" s="1">
-        <v>917.313000</v>
+        <v>917.31299999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.491000</v>
+        <v>-167.49100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>55114.078123</v>
+        <v>55114.078122999999</v>
       </c>
       <c r="L18" s="1">
         <v>15.309466</v>
       </c>
       <c r="M18" s="1">
-        <v>939.976000</v>
+        <v>939.976</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.077000</v>
+        <v>-119.077</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>55124.625038</v>
+        <v>55124.625037999998</v>
       </c>
       <c r="Q18" s="1">
         <v>15.312396</v>
       </c>
       <c r="R18" s="1">
-        <v>946.776000</v>
+        <v>946.77599999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.039000</v>
+        <v>-103.039</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>55134.766769</v>
+        <v>55134.766769000002</v>
       </c>
       <c r="V18" s="1">
         <v>15.315213</v>
       </c>
       <c r="W18" s="1">
-        <v>953.301000</v>
+        <v>953.30100000000004</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.182900</v>
+        <v>-88.182900000000004</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>55145.278948</v>
+        <v>55145.278947999999</v>
       </c>
       <c r="AA18" s="1">
         <v>15.318133</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.504000</v>
+        <v>960.50400000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.701700</v>
+        <v>-76.701700000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>55155.486118</v>
+        <v>55155.486118000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>15.320968</v>
+        <v>15.320968000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.204000</v>
+        <v>965.20399999999995</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.678300</v>
+        <v>-74.678299999999993</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>55165.351080</v>
+        <v>55165.35108</v>
       </c>
       <c r="AK18" s="1">
-        <v>15.323709</v>
+        <v>15.323708999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.442000</v>
+        <v>972.44200000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.579000</v>
+        <v>-79.578999999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>55175.805724</v>
+        <v>55175.805723999998</v>
       </c>
       <c r="AP18" s="1">
         <v>15.326613</v>
       </c>
       <c r="AQ18" s="1">
-        <v>980.624000</v>
+        <v>980.62400000000002</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.243600</v>
+        <v>-91.243600000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>55187.295052</v>
+        <v>55187.295052000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>15.329804</v>
+        <v>15.329803999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.623000</v>
+        <v>990.62300000000005</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.016000</v>
+        <v>-109.01600000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>55197.882195</v>
+        <v>55197.882194999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>15.332745</v>
+        <v>15.332744999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.009000</v>
+        <v>999.00900000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.690000</v>
+        <v>-124.69</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>55208.456368</v>
+        <v>55208.456367999999</v>
       </c>
       <c r="BE18" s="1">
         <v>15.335682</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.220000</v>
+        <v>1038.22</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.385000</v>
+        <v>-196.38499999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>55219.754736</v>
+        <v>55219.754736000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>15.338821</v>
+        <v>15.338820999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.440000</v>
+        <v>1105.44</v>
       </c>
       <c r="BL18" s="1">
-        <v>-311.963000</v>
+        <v>-311.96300000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>55231.420181</v>
+        <v>55231.420181000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>15.342061</v>
+        <v>15.342060999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1213.890000</v>
+        <v>1213.8900000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-493.453000</v>
+        <v>-493.45299999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>55242.726984</v>
+        <v>55242.726984000001</v>
       </c>
       <c r="BT18" s="1">
         <v>15.345202</v>
       </c>
       <c r="BU18" s="1">
-        <v>1335.180000</v>
+        <v>1335.18</v>
       </c>
       <c r="BV18" s="1">
-        <v>-692.152000</v>
+        <v>-692.15200000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>55253.710883</v>
@@ -4818,75 +5234,75 @@
         <v>15.348253</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1471.060000</v>
+        <v>1471.06</v>
       </c>
       <c r="CA18" s="1">
-        <v>-903.938000</v>
+        <v>-903.93799999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>55266.313203</v>
+        <v>55266.313202999998</v>
       </c>
       <c r="CD18" s="1">
         <v>15.351754</v>
       </c>
       <c r="CE18" s="1">
-        <v>1824.420000</v>
+        <v>1824.42</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1405.040000</v>
+        <v>-1405.04</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>55093.537783</v>
       </c>
       <c r="B19" s="1">
-        <v>15.303760</v>
+        <v>15.30376</v>
       </c>
       <c r="C19" s="1">
-        <v>899.973000</v>
+        <v>899.97299999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.882000</v>
+        <v>-197.88200000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>55103.961247</v>
+        <v>55103.961246999999</v>
       </c>
       <c r="G19" s="1">
         <v>15.306656</v>
       </c>
       <c r="H19" s="1">
-        <v>917.306000</v>
+        <v>917.30600000000004</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.712000</v>
+        <v>-167.71199999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>55114.350411</v>
+        <v>55114.350410999999</v>
       </c>
       <c r="L19" s="1">
         <v>15.309542</v>
       </c>
       <c r="M19" s="1">
-        <v>940.002000</v>
+        <v>940.00199999999995</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.075000</v>
+        <v>-119.075</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>55124.912719</v>
@@ -4895,240 +5311,240 @@
         <v>15.312476</v>
       </c>
       <c r="R19" s="1">
-        <v>946.812000</v>
+        <v>946.81200000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.071000</v>
+        <v>-103.071</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>55135.111458</v>
+        <v>55135.111457999999</v>
       </c>
       <c r="V19" s="1">
-        <v>15.315309</v>
+        <v>15.315308999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>953.411000</v>
+        <v>953.41099999999994</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.250700</v>
+        <v>-88.250699999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>55145.625154</v>
+        <v>55145.625154000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>15.318229</v>
+        <v>15.318229000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.519000</v>
+        <v>960.51900000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.763400</v>
+        <v>-76.763400000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>55155.835797</v>
       </c>
       <c r="AF19" s="1">
-        <v>15.321065</v>
+        <v>15.321065000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.203000</v>
+        <v>965.20299999999997</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.654300</v>
+        <v>-74.654300000000006</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>55166.047946</v>
+        <v>55166.047945999999</v>
       </c>
       <c r="AK19" s="1">
         <v>15.323902</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.462000</v>
+        <v>972.46199999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.538600</v>
+        <v>-79.538600000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>55176.530874</v>
+        <v>55176.530873999996</v>
       </c>
       <c r="AP19" s="1">
-        <v>15.326814</v>
+        <v>15.326814000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>980.619000</v>
+        <v>980.61900000000003</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.254600</v>
+        <v>-91.254599999999996</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>55187.660603</v>
+        <v>55187.660602999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>15.329906</v>
+        <v>15.329905999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>990.631000</v>
+        <v>990.63099999999997</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.025000</v>
+        <v>-109.02500000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>55198.265601</v>
+        <v>55198.265600999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>15.332852</v>
+        <v>15.332852000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.013000</v>
+        <v>999.01300000000003</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.693000</v>
+        <v>-124.693</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>55208.819439</v>
+        <v>55208.819438999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>15.335783</v>
+        <v>15.335782999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.220000</v>
+        <v>1038.22</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.359000</v>
+        <v>-196.35900000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>55220.439216</v>
+        <v>55220.439215999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>15.339011</v>
+        <v>15.339010999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL19" s="1">
-        <v>-311.968000</v>
+        <v>-311.96800000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>55232.162201</v>
+        <v>55232.162200999999</v>
       </c>
       <c r="BO19" s="1">
         <v>15.342267</v>
       </c>
       <c r="BP19" s="1">
-        <v>1213.870000</v>
+        <v>1213.8699999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-493.450000</v>
+        <v>-493.45</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>55242.872770</v>
+        <v>55242.872770000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>15.345242</v>
+        <v>15.345242000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1335.090000</v>
+        <v>1335.09</v>
       </c>
       <c r="BV19" s="1">
-        <v>-692.153000</v>
+        <v>-692.15300000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>55254.138914</v>
+        <v>55254.138914000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>15.348372</v>
+        <v>15.348371999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1471.020000</v>
+        <v>1471.02</v>
       </c>
       <c r="CA19" s="1">
-        <v>-903.820000</v>
+        <v>-903.82</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>55266.830532</v>
       </c>
       <c r="CD19" s="1">
-        <v>15.351897</v>
+        <v>15.351896999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1825.610000</v>
+        <v>1825.61</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1405.820000</v>
+        <v>-1405.82</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>55093.819015</v>
+        <v>55093.819015000001</v>
       </c>
       <c r="B20" s="1">
         <v>15.303839</v>
       </c>
       <c r="C20" s="1">
-        <v>899.959000</v>
+        <v>899.95899999999995</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.843000</v>
+        <v>-197.84299999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>55104.239963</v>
       </c>
       <c r="G20" s="1">
-        <v>15.306733</v>
+        <v>15.306732999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>917.676000</v>
+        <v>917.67600000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.780000</v>
+        <v>-167.78</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>55114.694635</v>
@@ -5137,285 +5553,285 @@
         <v>15.309637</v>
       </c>
       <c r="M20" s="1">
-        <v>940.151000</v>
+        <v>940.15099999999995</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.899000</v>
+        <v>-118.899</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>55125.265375</v>
+        <v>55125.265375000003</v>
       </c>
       <c r="Q20" s="1">
         <v>15.312574</v>
       </c>
       <c r="R20" s="1">
-        <v>946.767000</v>
+        <v>946.76700000000005</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.012000</v>
+        <v>-103.012</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>55135.452209</v>
+        <v>55135.452209000003</v>
       </c>
       <c r="V20" s="1">
         <v>15.315403</v>
       </c>
       <c r="W20" s="1">
-        <v>953.455000</v>
+        <v>953.45500000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.187800</v>
+        <v>-88.187799999999996</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>55146.320583</v>
+        <v>55146.320583000001</v>
       </c>
       <c r="AA20" s="1">
         <v>15.318422</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.529000</v>
+        <v>960.529</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.802100</v>
+        <v>-76.802099999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>55156.522261</v>
+        <v>55156.522260999998</v>
       </c>
       <c r="AF20" s="1">
         <v>15.321256</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.228000</v>
+        <v>965.22799999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.695400</v>
+        <v>-74.695400000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>55166.398103</v>
       </c>
       <c r="AK20" s="1">
-        <v>15.323999</v>
+        <v>15.323999000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.472000</v>
+        <v>972.47199999999998</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.553000</v>
+        <v>-79.552999999999997</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>55176.918745</v>
+        <v>55176.918745000003</v>
       </c>
       <c r="AP20" s="1">
         <v>15.326922</v>
       </c>
       <c r="AQ20" s="1">
-        <v>980.623000</v>
+        <v>980.62300000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.252600</v>
+        <v>-91.252600000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>55188.023178</v>
+        <v>55188.023178000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>15.330006</v>
+        <v>15.330005999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.653000</v>
+        <v>990.65300000000002</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.039000</v>
+        <v>-109.039</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>55198.597884</v>
+        <v>55198.597884000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>15.332944</v>
+        <v>15.332943999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>998.993000</v>
+        <v>998.99300000000005</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.671000</v>
+        <v>-124.67100000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>55209.484110</v>
+        <v>55209.484109999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>15.335968</v>
+        <v>15.335967999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.210000</v>
+        <v>1038.21</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.369000</v>
+        <v>-196.369</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>55220.882640</v>
+        <v>55220.882640000003</v>
       </c>
       <c r="BJ20" s="1">
         <v>15.339134</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.480000</v>
+        <v>1105.48</v>
       </c>
       <c r="BL20" s="1">
-        <v>-311.932000</v>
+        <v>-311.93200000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>55232.670559</v>
+        <v>55232.670558999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>15.342408</v>
+        <v>15.342408000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1213.880000</v>
+        <v>1213.8800000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-493.486000</v>
+        <v>-493.48599999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>55243.283457</v>
+        <v>55243.283456999998</v>
       </c>
       <c r="BT20" s="1">
         <v>15.345357</v>
       </c>
       <c r="BU20" s="1">
-        <v>1335.070000</v>
+        <v>1335.07</v>
       </c>
       <c r="BV20" s="1">
-        <v>-692.181000</v>
+        <v>-692.18100000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>55254.584834</v>
+        <v>55254.584834000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>15.348496</v>
+        <v>15.348496000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1471.130000</v>
+        <v>1471.13</v>
       </c>
       <c r="CA20" s="1">
-        <v>-903.895000</v>
+        <v>-903.89499999999998</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>55267.351827</v>
+        <v>55267.351826999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>15.352042</v>
+        <v>15.352042000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1825.370000</v>
+        <v>1825.37</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1405.720000</v>
+        <v>-1405.72</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>55094.162281</v>
+        <v>55094.162280999997</v>
       </c>
       <c r="B21" s="1">
         <v>15.303934</v>
       </c>
       <c r="C21" s="1">
-        <v>900.087000</v>
+        <v>900.08699999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-197.897000</v>
+        <v>-197.89699999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>55104.584682</v>
+        <v>55104.584682000001</v>
       </c>
       <c r="G21" s="1">
         <v>15.306829</v>
       </c>
       <c r="H21" s="1">
-        <v>917.400000</v>
+        <v>917.4</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.257000</v>
+        <v>-167.25700000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>55115.039882</v>
+        <v>55115.039881999997</v>
       </c>
       <c r="L21" s="1">
         <v>15.309733</v>
       </c>
       <c r="M21" s="1">
-        <v>940.227000</v>
+        <v>940.22699999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.136000</v>
+        <v>-119.136</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>55125.614558</v>
+        <v>55125.614558000001</v>
       </c>
       <c r="Q21" s="1">
         <v>15.312671</v>
       </c>
       <c r="R21" s="1">
-        <v>946.833000</v>
+        <v>946.83299999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.985000</v>
+        <v>-102.985</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>55136.141679</v>
@@ -5424,210 +5840,210 @@
         <v>15.315595</v>
       </c>
       <c r="W21" s="1">
-        <v>953.367000</v>
+        <v>953.36699999999996</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.116700</v>
+        <v>-88.116699999999994</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>55146.672209</v>
+        <v>55146.672208999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>15.318520</v>
+        <v>15.318519999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.614000</v>
+        <v>960.61400000000003</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.761100</v>
+        <v>-76.761099999999999</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>55156.863540</v>
+        <v>55156.863539999998</v>
       </c>
       <c r="AF21" s="1">
         <v>15.321351</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.214000</v>
+        <v>965.21400000000006</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.702000</v>
+        <v>-74.701999999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>55166.748781</v>
+        <v>55166.748781000002</v>
       </c>
       <c r="AK21" s="1">
         <v>15.324097</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.451000</v>
+        <v>972.45100000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.546600</v>
+        <v>-79.546599999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>55177.278841</v>
+        <v>55177.278840999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>15.327022</v>
+        <v>15.327021999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>980.646000</v>
+        <v>980.64599999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.248100</v>
+        <v>-91.248099999999994</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>55188.694267</v>
+        <v>55188.694266999999</v>
       </c>
       <c r="AU21" s="1">
         <v>15.330193</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.641000</v>
+        <v>990.64099999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.010000</v>
+        <v>-109.01</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>55199.048748</v>
+        <v>55199.048748000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>15.333069</v>
       </c>
       <c r="BA21" s="1">
-        <v>998.992000</v>
+        <v>998.99199999999996</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.675000</v>
+        <v>-124.675</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>55209.934478</v>
+        <v>55209.934478000003</v>
       </c>
       <c r="BE21" s="1">
         <v>15.336093</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.230000</v>
+        <v>1038.23</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.367000</v>
+        <v>-196.36699999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>55221.257120</v>
+        <v>55221.257120000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>15.339238</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.470000</v>
+        <v>1105.47</v>
       </c>
       <c r="BL21" s="1">
-        <v>-311.964000</v>
+        <v>-311.964</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>55233.080752</v>
+        <v>55233.080752000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>15.342522</v>
+        <v>15.342522000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1213.880000</v>
+        <v>1213.8800000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-493.501000</v>
+        <v>-493.50099999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>55243.714480</v>
+        <v>55243.714480000002</v>
       </c>
       <c r="BT21" s="1">
         <v>15.345476</v>
       </c>
       <c r="BU21" s="1">
-        <v>1335.070000</v>
+        <v>1335.07</v>
       </c>
       <c r="BV21" s="1">
-        <v>-692.198000</v>
+        <v>-692.19799999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>55255.017810</v>
+        <v>55255.017809999998</v>
       </c>
       <c r="BY21" s="1">
         <v>15.348616</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1470.980000</v>
+        <v>1470.98</v>
       </c>
       <c r="CA21" s="1">
-        <v>-903.798000</v>
+        <v>-903.798</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>55267.905857</v>
+        <v>55267.905856999998</v>
       </c>
       <c r="CD21" s="1">
-        <v>15.352196</v>
+        <v>15.352195999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1824.780000</v>
+        <v>1824.78</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1405.140000</v>
+        <v>-1405.14</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>55094.503528</v>
+        <v>55094.503528000001</v>
       </c>
       <c r="B22" s="1">
         <v>15.304029</v>
       </c>
       <c r="C22" s="1">
-        <v>900.017000</v>
+        <v>900.01700000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.756000</v>
+        <v>-197.756</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>55104.928904</v>
@@ -5636,994 +6052,994 @@
         <v>15.306925</v>
       </c>
       <c r="H22" s="1">
-        <v>917.224000</v>
+        <v>917.22400000000005</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.136000</v>
+        <v>-167.136</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>55115.732266</v>
+        <v>55115.732265999999</v>
       </c>
       <c r="L22" s="1">
-        <v>15.309926</v>
+        <v>15.309926000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>940.112000</v>
+        <v>940.11199999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.126000</v>
+        <v>-119.126</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>55126.309947</v>
+        <v>55126.309947000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>15.312864</v>
+        <v>15.312863999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>946.832000</v>
+        <v>946.83199999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.013000</v>
+        <v>-103.01300000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>55136.484742</v>
+        <v>55136.484742000001</v>
       </c>
       <c r="V22" s="1">
-        <v>15.315690</v>
+        <v>15.31569</v>
       </c>
       <c r="W22" s="1">
-        <v>953.453000</v>
+        <v>953.45299999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.307700</v>
+        <v>-88.307699999999997</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>55147.020927</v>
+        <v>55147.020926999998</v>
       </c>
       <c r="AA22" s="1">
         <v>15.318617</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.551000</v>
+        <v>960.55100000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.783600</v>
+        <v>-76.783600000000007</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>55157.207266</v>
+        <v>55157.207265999998</v>
       </c>
       <c r="AF22" s="1">
         <v>15.321446</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.216000</v>
+        <v>965.21600000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.673900</v>
+        <v>-74.673900000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>55167.407462</v>
+        <v>55167.407462000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>15.324280</v>
+        <v>15.32428</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.449000</v>
+        <v>972.44899999999996</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.528600</v>
+        <v>-79.528599999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>55177.945960</v>
+        <v>55177.945959999997</v>
       </c>
       <c r="AP22" s="1">
         <v>15.327207</v>
       </c>
       <c r="AQ22" s="1">
-        <v>980.631000</v>
+        <v>980.63099999999997</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.256800</v>
+        <v>-91.256799999999998</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>55189.117389</v>
+        <v>55189.117388999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>15.330310</v>
+        <v>15.330310000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>990.628000</v>
+        <v>990.62800000000004</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.033000</v>
+        <v>-109.033</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>55199.316092</v>
+        <v>55199.316092000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>15.333143</v>
       </c>
       <c r="BA22" s="1">
-        <v>998.996000</v>
+        <v>998.99599999999998</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.675000</v>
+        <v>-124.675</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>55210.296063</v>
+        <v>55210.296063000002</v>
       </c>
       <c r="BE22" s="1">
         <v>15.336193</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.200000</v>
+        <v>1038.2</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.378000</v>
+        <v>-196.37799999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>55221.633088</v>
+        <v>55221.633088000002</v>
       </c>
       <c r="BJ22" s="1">
         <v>15.339343</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.450000</v>
+        <v>1105.45</v>
       </c>
       <c r="BL22" s="1">
-        <v>-311.951000</v>
+        <v>-311.95100000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>55233.477056</v>
+        <v>55233.477056000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>15.342633</v>
+        <v>15.342632999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1213.930000</v>
+        <v>1213.93</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-493.454000</v>
+        <v>-493.45400000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>55244.126162</v>
       </c>
       <c r="BT22" s="1">
-        <v>15.345591</v>
+        <v>15.345591000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1335.040000</v>
+        <v>1335.04</v>
       </c>
       <c r="BV22" s="1">
-        <v>-692.259000</v>
+        <v>-692.25900000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>55255.439906</v>
       </c>
       <c r="BY22" s="1">
-        <v>15.348733</v>
+        <v>15.348732999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1470.880000</v>
+        <v>1470.88</v>
       </c>
       <c r="CA22" s="1">
-        <v>-903.973000</v>
+        <v>-903.97299999999996</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>55268.429673</v>
+        <v>55268.429672999999</v>
       </c>
       <c r="CD22" s="1">
         <v>15.352342</v>
       </c>
       <c r="CE22" s="1">
-        <v>1825.900000</v>
+        <v>1825.9</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1405.940000</v>
+        <v>-1405.94</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>55095.185989</v>
+        <v>55095.185988999998</v>
       </c>
       <c r="B23" s="1">
-        <v>15.304218</v>
+        <v>15.304218000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>900.085000</v>
+        <v>900.08500000000004</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.920000</v>
+        <v>-197.92</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>55105.617847</v>
+        <v>55105.617847000001</v>
       </c>
       <c r="G23" s="1">
-        <v>15.307116</v>
+        <v>15.307116000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>917.806000</v>
+        <v>917.80600000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.061000</v>
+        <v>-167.06100000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>55116.078510</v>
+        <v>55116.078509999999</v>
       </c>
       <c r="L23" s="1">
         <v>15.310022</v>
       </c>
       <c r="M23" s="1">
-        <v>940.078000</v>
+        <v>940.07799999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.091000</v>
+        <v>-119.09099999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>55126.658139</v>
+        <v>55126.658138999999</v>
       </c>
       <c r="Q23" s="1">
         <v>15.312961</v>
       </c>
       <c r="R23" s="1">
-        <v>946.840000</v>
+        <v>946.84</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.050000</v>
+        <v>-103.05</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>55136.827614</v>
+        <v>55136.827614000002</v>
       </c>
       <c r="V23" s="1">
         <v>15.315785</v>
       </c>
       <c r="W23" s="1">
-        <v>953.455000</v>
+        <v>953.45500000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.239600</v>
+        <v>-88.239599999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>55147.676113</v>
+        <v>55147.676113000001</v>
       </c>
       <c r="AA23" s="1">
         <v>15.318799</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.485000</v>
+        <v>960.48500000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.738800</v>
+        <v>-76.738799999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>55157.863475</v>
+        <v>55157.863474999998</v>
       </c>
       <c r="AF23" s="1">
         <v>15.321629</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.214000</v>
+        <v>965.21400000000006</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.711000</v>
+        <v>-74.710999999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>55167.790405</v>
       </c>
       <c r="AK23" s="1">
-        <v>15.324386</v>
+        <v>15.324386000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.497000</v>
+        <v>972.49699999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.547000</v>
+        <v>-79.546999999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>55178.389383</v>
+        <v>55178.389383000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>15.327330</v>
+        <v>15.32733</v>
       </c>
       <c r="AQ23" s="1">
-        <v>980.643000</v>
+        <v>980.64300000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.253600</v>
+        <v>-91.253600000000006</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>55189.481945</v>
       </c>
       <c r="AU23" s="1">
-        <v>15.330412</v>
+        <v>15.330412000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>990.610000</v>
+        <v>990.61</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.023000</v>
+        <v>-109.023</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>55199.677180</v>
+        <v>55199.677179999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>15.333244</v>
+        <v>15.333244000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.013000</v>
+        <v>999.01300000000003</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.692000</v>
+        <v>-124.69199999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>55210.658110</v>
+        <v>55210.658109999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>15.336294</v>
+        <v>15.336294000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.230000</v>
+        <v>1038.23</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.370000</v>
+        <v>-196.37</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>55222.060637</v>
+        <v>55222.060637000002</v>
       </c>
       <c r="BJ23" s="1">
         <v>15.339461</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.460000</v>
+        <v>1105.46</v>
       </c>
       <c r="BL23" s="1">
-        <v>-311.920000</v>
+        <v>-311.92</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>55233.896669</v>
+        <v>55233.896669000002</v>
       </c>
       <c r="BO23" s="1">
         <v>15.342749</v>
       </c>
       <c r="BP23" s="1">
-        <v>1213.890000</v>
+        <v>1213.8900000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-493.494000</v>
+        <v>-493.49400000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>55244.543295</v>
+        <v>55244.543295000003</v>
       </c>
       <c r="BT23" s="1">
         <v>15.345706</v>
       </c>
       <c r="BU23" s="1">
-        <v>1335.070000</v>
+        <v>1335.07</v>
       </c>
       <c r="BV23" s="1">
-        <v>-692.301000</v>
+        <v>-692.30100000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>55255.861009</v>
       </c>
       <c r="BY23" s="1">
-        <v>15.348850</v>
+        <v>15.348850000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1470.960000</v>
+        <v>1470.96</v>
       </c>
       <c r="CA23" s="1">
-        <v>-903.765000</v>
+        <v>-903.76499999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>55268.948449</v>
+        <v>55268.948449000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>15.352486</v>
+        <v>15.352486000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1825.140000</v>
+        <v>1825.14</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1404.150000</v>
+        <v>-1404.15</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>55095.527732</v>
+        <v>55095.527732000002</v>
       </c>
       <c r="B24" s="1">
         <v>15.304313</v>
       </c>
       <c r="C24" s="1">
-        <v>900.016000</v>
+        <v>900.01599999999996</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.823000</v>
+        <v>-197.82300000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>55105.964584</v>
+        <v>55105.964584000001</v>
       </c>
       <c r="G24" s="1">
         <v>15.307212</v>
       </c>
       <c r="H24" s="1">
-        <v>917.114000</v>
+        <v>917.11400000000003</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.567000</v>
+        <v>-167.56700000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>55116.423230</v>
+        <v>55116.42323</v>
       </c>
       <c r="L24" s="1">
-        <v>15.310118</v>
+        <v>15.310117999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>940.086000</v>
+        <v>940.08600000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.067000</v>
+        <v>-119.06699999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>55127.008315</v>
+        <v>55127.008314999999</v>
       </c>
       <c r="Q24" s="1">
         <v>15.313058</v>
       </c>
       <c r="R24" s="1">
-        <v>946.813000</v>
+        <v>946.81299999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.066000</v>
+        <v>-103.066</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>55137.485806</v>
+        <v>55137.485805999997</v>
       </c>
       <c r="V24" s="1">
         <v>15.315968</v>
       </c>
       <c r="W24" s="1">
-        <v>953.433000</v>
+        <v>953.43299999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.193400</v>
+        <v>-88.193399999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>55148.062528</v>
+        <v>55148.062528000002</v>
       </c>
       <c r="AA24" s="1">
         <v>15.318906</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.518000</v>
+        <v>960.51800000000003</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.802300</v>
+        <v>-76.802300000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>55158.238946</v>
+        <v>55158.238945999998</v>
       </c>
       <c r="AF24" s="1">
         <v>15.321733</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.245000</v>
+        <v>965.245</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.674900</v>
+        <v>-74.674899999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>55168.140054</v>
+        <v>55168.140054000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>15.324483</v>
+        <v>15.324483000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.466000</v>
+        <v>972.46600000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.549200</v>
+        <v>-79.549199999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>55178.747668</v>
+        <v>55178.747668000004</v>
       </c>
       <c r="AP24" s="1">
-        <v>15.327430</v>
+        <v>15.32743</v>
       </c>
       <c r="AQ24" s="1">
-        <v>980.635000</v>
+        <v>980.63499999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.240300</v>
+        <v>-91.240300000000005</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>55189.845976</v>
+        <v>55189.845975999997</v>
       </c>
       <c r="AU24" s="1">
         <v>15.330513</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.621000</v>
+        <v>990.62099999999998</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.012000</v>
+        <v>-109.012</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>55200.096298</v>
+        <v>55200.096297999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>15.333360</v>
+        <v>15.333360000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.007000</v>
+        <v>999.00699999999995</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.711000</v>
+        <v>-124.711</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>55211.077242</v>
+        <v>55211.077241999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>15.336410</v>
+        <v>15.336410000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.210000</v>
+        <v>1038.21</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.400000</v>
+        <v>-196.4</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>55222.413293</v>
+        <v>55222.413292999998</v>
       </c>
       <c r="BJ24" s="1">
         <v>15.339559</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.460000</v>
+        <v>1105.46</v>
       </c>
       <c r="BL24" s="1">
-        <v>-311.950000</v>
+        <v>-311.95</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>55234.326063</v>
       </c>
       <c r="BO24" s="1">
-        <v>15.342868</v>
+        <v>15.342867999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1213.910000</v>
+        <v>1213.9100000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-493.438000</v>
+        <v>-493.43799999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>55244.958447</v>
+        <v>55244.958446999997</v>
       </c>
       <c r="BT24" s="1">
         <v>15.345822</v>
       </c>
       <c r="BU24" s="1">
-        <v>1335.020000</v>
+        <v>1335.02</v>
       </c>
       <c r="BV24" s="1">
-        <v>-692.367000</v>
+        <v>-692.36699999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>55256.286092</v>
+        <v>55256.286092000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>15.348968</v>
+        <v>15.348967999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1471.070000</v>
+        <v>1471.07</v>
       </c>
       <c r="CA24" s="1">
-        <v>-903.839000</v>
+        <v>-903.83900000000006</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>55269.831354</v>
+        <v>55269.831354000002</v>
       </c>
       <c r="CD24" s="1">
         <v>15.352731</v>
       </c>
       <c r="CE24" s="1">
-        <v>1826.410000</v>
+        <v>1826.41</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1404.790000</v>
+        <v>-1404.79</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>55095.867988</v>
+        <v>55095.867987999998</v>
       </c>
       <c r="B25" s="1">
         <v>15.304408</v>
       </c>
       <c r="C25" s="1">
-        <v>900.010000</v>
+        <v>900.01</v>
       </c>
       <c r="D25" s="1">
-        <v>-197.746000</v>
+        <v>-197.74600000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>55106.308774</v>
+        <v>55106.308773999997</v>
       </c>
       <c r="G25" s="1">
-        <v>15.307308</v>
+        <v>15.307308000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>917.459000</v>
+        <v>917.45899999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.123000</v>
+        <v>-167.12299999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>55117.076424</v>
+        <v>55117.076423999999</v>
       </c>
       <c r="L25" s="1">
-        <v>15.310299</v>
+        <v>15.310299000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>940.153000</v>
+        <v>940.15300000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.002000</v>
+        <v>-119.002</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>55127.742891</v>
+        <v>55127.742891000002</v>
       </c>
       <c r="Q25" s="1">
         <v>15.313262</v>
       </c>
       <c r="R25" s="1">
-        <v>946.773000</v>
+        <v>946.77300000000002</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.019000</v>
+        <v>-103.01900000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>55137.859821</v>
+        <v>55137.859820999998</v>
       </c>
       <c r="V25" s="1">
         <v>15.316072</v>
       </c>
       <c r="W25" s="1">
-        <v>953.404000</v>
+        <v>953.404</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.118500</v>
+        <v>-88.118499999999997</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>55148.413695</v>
+        <v>55148.413695000003</v>
       </c>
       <c r="AA25" s="1">
         <v>15.319004</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.601000</v>
+        <v>960.601</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.774500</v>
+        <v>-76.774500000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>55158.580194</v>
+        <v>55158.580194000002</v>
       </c>
       <c r="AF25" s="1">
         <v>15.321828</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.207000</v>
+        <v>965.20699999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.678200</v>
+        <v>-74.678200000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>55168.488772</v>
+        <v>55168.488771999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>15.324580</v>
+        <v>15.324579999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.460000</v>
+        <v>972.46</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.556000</v>
+        <v>-79.555999999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>55179.106102</v>
+        <v>55179.106101999998</v>
       </c>
       <c r="AP25" s="1">
         <v>15.327529</v>
       </c>
       <c r="AQ25" s="1">
-        <v>980.636000</v>
+        <v>980.63599999999997</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.266400</v>
+        <v>-91.266400000000004</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>55190.270089</v>
+        <v>55190.270088999998</v>
       </c>
       <c r="AU25" s="1">
         <v>15.330631</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.614000</v>
+        <v>990.61400000000003</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.018000</v>
+        <v>-109.018</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>55200.392906</v>
+        <v>55200.392906000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>15.333442</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.011000</v>
+        <v>999.01099999999997</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.701000</v>
+        <v>-124.70099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>55211.379787</v>
+        <v>55211.379786999998</v>
       </c>
       <c r="BE25" s="1">
         <v>15.336494</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.200000</v>
+        <v>1038.2</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.365000</v>
+        <v>-196.36500000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>55222.787278</v>
+        <v>55222.787278000003</v>
       </c>
       <c r="BJ25" s="1">
         <v>15.339663</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.470000</v>
+        <v>1105.47</v>
       </c>
       <c r="BL25" s="1">
-        <v>-311.937000</v>
+        <v>-311.93700000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>55234.711101</v>
+        <v>55234.711101000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>15.342975</v>
+        <v>15.342974999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1213.870000</v>
+        <v>1213.8699999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-493.473000</v>
+        <v>-493.47300000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>55245.373132</v>
+        <v>55245.373132000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>15.345937</v>
+        <v>15.345936999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1335.110000</v>
+        <v>1335.11</v>
       </c>
       <c r="BV25" s="1">
-        <v>-692.466000</v>
+        <v>-692.46600000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>55256.704703</v>
+        <v>55256.704703000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>15.349085</v>
+        <v>15.349085000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1471.010000</v>
+        <v>1471.01</v>
       </c>
       <c r="CA25" s="1">
-        <v>-903.807000</v>
+        <v>-903.80700000000002</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>55270.028736</v>
@@ -6632,45 +7048,45 @@
         <v>15.352786</v>
       </c>
       <c r="CE25" s="1">
-        <v>1826.190000</v>
+        <v>1826.19</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1404.870000</v>
+        <v>-1404.87</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>55096.520723</v>
+        <v>55096.520723000001</v>
       </c>
       <c r="B26" s="1">
         <v>15.304589</v>
       </c>
       <c r="C26" s="1">
-        <v>899.980000</v>
+        <v>899.98</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.865000</v>
+        <v>-197.86500000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>55106.970980</v>
+        <v>55106.970979999998</v>
       </c>
       <c r="G26" s="1">
         <v>15.307492</v>
       </c>
       <c r="H26" s="1">
-        <v>917.523000</v>
+        <v>917.52300000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.684000</v>
+        <v>-167.684</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>55117.459831</v>
@@ -6679,28 +7095,28 @@
         <v>15.310406</v>
       </c>
       <c r="M26" s="1">
-        <v>940.162000</v>
+        <v>940.16200000000003</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.049000</v>
+        <v>-119.04900000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>55128.052394</v>
+        <v>55128.052393999998</v>
       </c>
       <c r="Q26" s="1">
         <v>15.313348</v>
       </c>
       <c r="R26" s="1">
-        <v>946.833000</v>
+        <v>946.83299999999997</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.004000</v>
+        <v>-103.004</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>55138.201298</v>
@@ -6709,43 +7125,43 @@
         <v>15.316167</v>
       </c>
       <c r="W26" s="1">
-        <v>953.344000</v>
+        <v>953.34400000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.113400</v>
+        <v>-88.113399999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>55148.762847</v>
+        <v>55148.762846999998</v>
       </c>
       <c r="AA26" s="1">
         <v>15.319101</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.505000</v>
+        <v>960.505</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.778900</v>
+        <v>-76.778899999999993</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>55158.923889</v>
+        <v>55158.923888999998</v>
       </c>
       <c r="AF26" s="1">
         <v>15.321923</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.203000</v>
+        <v>965.20299999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.682800</v>
+        <v>-74.6828</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>55168.914309</v>
@@ -6754,28 +7170,28 @@
         <v>15.324698</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.481000</v>
+        <v>972.48099999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.551900</v>
+        <v>-79.551900000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>55179.530909</v>
+        <v>55179.530909000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>15.327647</v>
+        <v>15.327647000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>980.648000</v>
+        <v>980.64800000000002</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.245200</v>
+        <v>-91.245199999999997</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>55190.575095</v>
@@ -6784,120 +7200,121 @@
         <v>15.330715</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.617000</v>
+        <v>990.61699999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.017000</v>
+        <v>-109.017</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>55200.754489</v>
+        <v>55200.754488999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>15.333543</v>
+        <v>15.333543000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>998.997000</v>
+        <v>998.99699999999996</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.691000</v>
+        <v>-124.691</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>55211.741867</v>
+        <v>55211.741866999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>15.336595</v>
+        <v>15.336595000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.230000</v>
+        <v>1038.23</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.369000</v>
+        <v>-196.369</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>55223.164236</v>
+        <v>55223.164235999997</v>
       </c>
       <c r="BJ26" s="1">
-        <v>15.339768</v>
+        <v>15.339767999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.460000</v>
+        <v>1105.46</v>
       </c>
       <c r="BL26" s="1">
-        <v>-311.913000</v>
+        <v>-311.91300000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>55235.128765</v>
+        <v>55235.128765000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>15.343091</v>
+        <v>15.343090999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1213.900000</v>
+        <v>1213.9000000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-493.447000</v>
+        <v>-493.447</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>55245.811105</v>
+        <v>55245.811105000001</v>
       </c>
       <c r="BT26" s="1">
         <v>15.346059</v>
       </c>
       <c r="BU26" s="1">
-        <v>1335.110000</v>
+        <v>1335.11</v>
       </c>
       <c r="BV26" s="1">
-        <v>-692.411000</v>
+        <v>-692.41099999999994</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>55257.149615</v>
+        <v>55257.149615000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>15.349208</v>
+        <v>15.349208000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1470.950000</v>
+        <v>1470.95</v>
       </c>
       <c r="CA26" s="1">
-        <v>-903.849000</v>
+        <v>-903.84900000000005</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>55270.546589</v>
+        <v>55270.546588999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>15.352930</v>
+        <v>15.352930000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1825.320000</v>
+        <v>1825.32</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1404.140000</v>
+        <v>-1404.14</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>